--- a/Ergebnisse-normal.xlsx
+++ b/Ergebnisse-normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60A45A9-D32E-41B5-92E6-8F8F724C58A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DAE76-A40E-467E-AA27-6E8F1D790A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Experiment</t>
   </si>
@@ -52,15 +52,25 @@
   <si>
     <t>greedy</t>
   </si>
+  <si>
+    <t>threads</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -160,7 +171,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$I$1</c:f>
+              <c:f>Ergebnisse!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -194,7 +205,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$H$2:$H$101</c:f>
+              <c:f>Ergebnisse!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -503,7 +514,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$I$2:$I$101</c:f>
+              <c:f>Ergebnisse!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -532,7 +543,7 @@
                   <c:v>1.0046511627906978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1453744493392071</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1290322580645162</c:v>
@@ -568,61 +579,61 @@
                   <c:v>1.036734693877551</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0732600732600732</c:v>
+                  <c:v>1.5260416666666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2321428571428572</c:v>
+                  <c:v>1.29375</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1497584541062802</c:v>
+                  <c:v>1.2268041237113403</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>1.0612244897959184</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.78222222222222226</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0174418604651163</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0837004405286343</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1379310344827587</c:v>
+                  <c:v>1.3524590163934427</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.69613259668508287</c:v>
+                  <c:v>1.1886792452830188</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.270935960591133</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>1.0470085470085471</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>1.111842105263158</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.203125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.03862660944206</c:v>
+                  <c:v>1.1152073732718895</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.73770491803278693</c:v>
+                  <c:v>1.2413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0555555555555556</c:v>
+                  <c:v>1.1546961325966851</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.76119402985074625</c:v>
+                  <c:v>1.0851063829787233</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1</c:v>
@@ -640,7 +651,7 @@
                   <c:v>1.3217821782178218</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3259911894273129</c:v>
+                  <c:v>1.17578125</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1.0234375</c:v>
@@ -649,7 +660,7 @@
                   <c:v>1.225609756097561</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.88157894736842102</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1</c:v>
@@ -661,37 +672,37 @@
                   <c:v>1.1730769230769231</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.459016393442623</c:v>
+                  <c:v>1.4239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.1258741258741258</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1931818181818181</c:v>
+                  <c:v>1.4093959731543624</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1.1597222222222223</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0691244239631337</c:v>
+                  <c:v>1.1776649746192893</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.1891891891891893</c:v>
+                  <c:v>1.1518324607329844</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2056737588652482</c:v>
+                  <c:v>1.4049586776859504</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.4219409282700421</c:v>
+                  <c:v>1.7193877551020409</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.170940170940171</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.101123595505618</c:v>
+                  <c:v>1.4961832061068703</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.88262910798122063</c:v>
+                  <c:v>1.1604938271604939</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.1348837209302325</c:v>
@@ -700,10 +711,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2696629213483146</c:v>
+                  <c:v>1.4549356223175967</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4216216216216215</c:v>
+                  <c:v>1.4293478260869565</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1.2210526315789474</c:v>
@@ -712,28 +723,28 @@
                   <c:v>1.0398406374501992</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.87671232876712324</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.0794223826714802</c:v>
+                  <c:v>1.103321033210332</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>1.1755725190839694</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4833333333333334</c:v>
+                  <c:v>1.5682819383259912</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.92142857142857137</c:v>
+                  <c:v>1.032</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.2321428571428572</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.9821428571428571</c:v>
+                  <c:v>1.0122699386503067</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.90441176470588236</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1.1382488479262673</c:v>
@@ -745,13 +756,13 @@
                   <c:v>1.292929292929293</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0419161676646707</c:v>
+                  <c:v>1.1836734693877551</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.5707762557077625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5751295336787565</c:v>
+                  <c:v>1.8313253012048192</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.1764705882352942</c:v>
@@ -763,13 +774,13 @@
                   <c:v>1.4242424242424243</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.558139534883721</c:v>
+                  <c:v>1.6962025316455696</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2580645161290323</c:v>
+                  <c:v>1.3295454545454546</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1.1092896174863387</c:v>
@@ -784,28 +795,28 @@
                   <c:v>1.1296296296296295</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.1881188118811881</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2233502538071066</c:v>
+                  <c:v>1.3097826086956521</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.3582089552238805</c:v>
+                  <c:v>1.3718592964824121</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.304147465437788</c:v>
+                  <c:v>1.3605769230769231</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.95918367346938771</c:v>
+                  <c:v>1.0042735042735043</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2608695652173914</c:v>
+                  <c:v>1.5064935064935066</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>1.6424581005586592</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.9326923076923077</c:v>
+                  <c:v>1.9900990099009901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,7 +824,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D25F-400D-A17E-85FADFB0D3A9}"/>
+              <c16:uniqueId val="{00000000-FDC3-4763-BADF-DE750833FC0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -822,7 +833,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$J$1</c:f>
+              <c:f>Ergebnisse!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -856,7 +867,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$H$2:$H$101</c:f>
+              <c:f>Ergebnisse!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1165,7 +1176,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$J$2:$J$101</c:f>
+              <c:f>Ergebnisse!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1194,7 +1205,7 @@
                   <c:v>1.0046511627906978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1453744493392071</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1290322580645162</c:v>
@@ -1230,61 +1241,61 @@
                   <c:v>1.036734693877551</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0146520146520146</c:v>
+                  <c:v>1.4427083333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2321428571428572</c:v>
+                  <c:v>1.29375</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.3013100436681222</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0670103092783505</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0612244897959184</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1822222222222223</c:v>
+                  <c:v>1.5113636363636365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0174418604651163</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1707317073170731</c:v>
+                  <c:v>1.2687224669603525</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2482758620689656</c:v>
+                  <c:v>1.4836065573770492</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2541436464088398</c:v>
+                  <c:v>2.141509433962264</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.3251231527093597</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2122448979591838</c:v>
+                  <c:v>1.2692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2840236686390532</c:v>
+                  <c:v>1.4276315789473684</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.6328125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0042918454935623</c:v>
+                  <c:v>1.0783410138248848</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0245901639344261</c:v>
+                  <c:v>1.7241379310344827</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1.1990950226244343</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>1.0939226519337018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2537313432835822</c:v>
+                  <c:v>1.7872340425531914</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1.8507462686567164</c:v>
@@ -1302,7 +1313,7 @@
                   <c:v>1.4405940594059405</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.277533039647577</c:v>
+                  <c:v>1.1328125</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1.22265625</c:v>
@@ -1311,7 +1322,7 @@
                   <c:v>1.0853658536585367</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>1.1940298507462686</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.5210084033613445</c:v>
@@ -1323,37 +1334,37 @@
                   <c:v>1.3413461538461537</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2868852459016393</c:v>
+                  <c:v>1.256</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.1258741258741258</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>1.1812080536912752</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0460829493087558</c:v>
+                  <c:v>1.1522842639593909</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3621621621621622</c:v>
+                  <c:v>1.3193717277486912</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>1.165289256198347</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0506329113924051</c:v>
+                  <c:v>1.2704081632653061</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.101123595505618</c:v>
+                  <c:v>1.4961832061068703</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2629107981220657</c:v>
+                  <c:v>1.6604938271604939</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.0976744186046512</c:v>
@@ -1362,10 +1373,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1348314606741574</c:v>
+                  <c:v>1.3004291845493563</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.8432432432432433</c:v>
+                  <c:v>1.8532608695652173</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1</c:v>
@@ -1374,28 +1385,28 @@
                   <c:v>1.2151394422310757</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1324200913242009</c:v>
+                  <c:v>1.2916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1</c:v>
+                  <c:v>1.0221402214022139</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>1.1755725190839694</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1958333333333333</c:v>
+                  <c:v>1.2643171806167401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0571428571428572</c:v>
+                  <c:v>1.1839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.4702380952380953</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0952380952380953</c:v>
+                  <c:v>1.1288343558282208</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.25</c:v>
+                  <c:v>1.3821138211382114</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1.23963133640553</c:v>
@@ -1407,13 +1418,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>1.1360544217687074</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.1050228310502284</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2746113989637307</c:v>
+                  <c:v>1.4819277108433735</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.2549019607843137</c:v>
@@ -1425,13 +1436,13 @@
                   <c:v>1.1515151515151516</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.2616279069767442</c:v>
+                  <c:v>1.3734177215189873</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.0698924731182795</c:v>
+                  <c:v>1.1306818181818181</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1.4863387978142077</c:v>
@@ -1446,28 +1457,28 @@
                   <c:v>1.1296296296296295</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.2574257425742574</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2741116751269035</c:v>
+                  <c:v>1.3641304347826086</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4577114427860696</c:v>
+                  <c:v>1.4723618090452262</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0599078341013826</c:v>
+                  <c:v>1.1057692307692308</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.416326530612245</c:v>
+                  <c:v>1.482905982905983</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2608695652173914</c:v>
+                  <c:v>1.5064935064935066</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>1.1229050279329609</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.5144230769230769</c:v>
+                  <c:v>1.5594059405940595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,7 +1486,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D25F-400D-A17E-85FADFB0D3A9}"/>
+              <c16:uniqueId val="{00000001-FDC3-4763-BADF-DE750833FC0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1484,7 +1495,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$K$1</c:f>
+              <c:f>Ergebnisse!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1518,7 +1529,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$H$2:$H$101</c:f>
+              <c:f>Ergebnisse!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1827,7 +1838,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$K$2:$K$101</c:f>
+              <c:f>Ergebnisse!$M$2:$M$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1856,7 +1867,7 @@
                   <c:v>1.0046511627906978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1541850220264318</c:v>
+                  <c:v>1.1196581196581197</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1290322580645162</c:v>
@@ -1892,61 +1903,61 @@
                   <c:v>1.2204081632653061</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0146520146520146</c:v>
+                  <c:v>1.4427083333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1428571428571428</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.3013100436681222</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0670103092783505</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0612244897959184</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1822222222222223</c:v>
+                  <c:v>1.5113636363636365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0174418604651163</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1707317073170731</c:v>
+                  <c:v>1.2687224669603525</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2482758620689656</c:v>
+                  <c:v>1.4836065573770492</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2541436464088398</c:v>
+                  <c:v>2.141509433962264</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.2364532019704433</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2122448979591838</c:v>
+                  <c:v>1.2692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2840236686390532</c:v>
+                  <c:v>1.4276315789473684</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.6328125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0042918454935623</c:v>
+                  <c:v>1.0783410138248848</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0245901639344261</c:v>
+                  <c:v>1.7241379310344827</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1.1990950226244343</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>1.0939226519337018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2537313432835822</c:v>
+                  <c:v>1.7872340425531914</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1.8507462686567164</c:v>
@@ -1964,7 +1975,7 @@
                   <c:v>1.4653465346534653</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.277533039647577</c:v>
+                  <c:v>1.1328125</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1.3671875</c:v>
@@ -1973,7 +1984,7 @@
                   <c:v>1.0853658536585367</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>1.1940298507462686</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.5210084033613445</c:v>
@@ -1985,37 +1996,37 @@
                   <c:v>1.3413461538461537</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2868852459016393</c:v>
+                  <c:v>1.256</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.1258741258741258</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>1.1812080536912752</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0460829493087558</c:v>
+                  <c:v>1.1522842639593909</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3621621621621622</c:v>
+                  <c:v>1.3193717277486912</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.1843971631205674</c:v>
+                  <c:v>1.3801652892561984</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0759493670886076</c:v>
+                  <c:v>1.3010204081632653</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.101123595505618</c:v>
+                  <c:v>1.4961832061068703</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2629107981220657</c:v>
+                  <c:v>1.6604938271604939</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.0976744186046512</c:v>
@@ -2024,10 +2035,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1348314606741574</c:v>
+                  <c:v>1.3004291845493563</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2216216216216216</c:v>
+                  <c:v>1.2282608695652173</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1</c:v>
@@ -2036,28 +2047,28 @@
                   <c:v>1.2151394422310757</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1324200913242009</c:v>
+                  <c:v>1.2916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1</c:v>
+                  <c:v>1.0221402214022139</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>1.1755725190839694</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1958333333333333</c:v>
+                  <c:v>1.2643171806167401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0571428571428572</c:v>
+                  <c:v>1.1839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.3511904761904763</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0952380952380953</c:v>
+                  <c:v>1.1288343558282208</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.25</c:v>
+                  <c:v>1.3821138211382114</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1.23963133640553</c:v>
@@ -2069,13 +2080,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>1.1360544217687074</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.2328767123287672</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2953367875647668</c:v>
+                  <c:v>1.5060240963855422</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.2549019607843137</c:v>
@@ -2087,13 +2098,13 @@
                   <c:v>1.5656565656565657</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.569767441860465</c:v>
+                  <c:v>1.7088607594936709</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1.5416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1774193548387097</c:v>
+                  <c:v>1.2443181818181819</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1.2349726775956285</c:v>
@@ -2108,28 +2119,28 @@
                   <c:v>1.537037037037037</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5742574257425743</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1928934010152283</c:v>
+                  <c:v>1.2771739130434783</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.3731343283582089</c:v>
+                  <c:v>1.3869346733668342</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.5115207373271888</c:v>
+                  <c:v>1.5769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.3918367346938776</c:v>
+                  <c:v>1.4572649572649572</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2717391304347827</c:v>
+                  <c:v>1.5194805194805194</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>1.4636871508379887</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.4278846153846154</c:v>
+                  <c:v>1.4702970297029703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +2148,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D25F-400D-A17E-85FADFB0D3A9}"/>
+              <c16:uniqueId val="{00000002-FDC3-4763-BADF-DE750833FC0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2149,11 +2160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="645725824"/>
-        <c:axId val="645727232"/>
+        <c:axId val="641914304"/>
+        <c:axId val="641915008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="645725824"/>
+        <c:axId val="641914304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,12 +2222,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645727232"/>
+        <c:crossAx val="641915008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="645727232"/>
+        <c:axId val="641915008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2285,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645725824"/>
+        <c:crossAx val="641914304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2992,22 +3003,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8797EE-F64C-C8E3-4F53-999D393D5B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624A7A92-B89E-492F-D236-69DC61F275BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,15 +3356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3372,20 +3383,26 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3404,23 +3421,30 @@
       <c r="F2">
         <v>318</v>
       </c>
-      <c r="H2">
+      <c r="G2">
+        <v>353</v>
+      </c>
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <f>D2/C2</f>
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <f>E2/C2</f>
         <v>1.6391752577319587</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <f>F2/C2</f>
         <v>1.6391752577319587</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <f>G2/C2</f>
+        <v>1.8195876288659794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3439,23 +3463,30 @@
       <c r="F3">
         <v>231</v>
       </c>
-      <c r="H3">
+      <c r="G3">
+        <v>231</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">D3/C3</f>
+      <c r="K3">
+        <f>D3/C3</f>
         <v>1.4375</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">E3/C3</f>
+      <c r="L3">
+        <f>E3/C3</f>
         <v>1.2307692307692308</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="2">F3/C3</f>
+      <c r="M3">
+        <f>F3/C3</f>
         <v>1.1105769230769231</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <f>G3/C3</f>
+        <v>1.1105769230769231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3474,23 +3505,30 @@
       <c r="F4">
         <v>163</v>
       </c>
-      <c r="H4">
+      <c r="G4">
+        <v>163</v>
+      </c>
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="K4">
+        <f>D4/C4</f>
         <v>1</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
+      <c r="L4">
+        <f>E4/C4</f>
         <v>1</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
+      <c r="M4">
+        <f>F4/C4</f>
         <v>1.1398601398601398</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <f>G4/C4</f>
+        <v>1.1398601398601398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3509,23 +3547,30 @@
       <c r="F5">
         <v>201</v>
       </c>
-      <c r="H5">
+      <c r="G5">
+        <v>201</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
+      <c r="K5">
+        <f>D5/C5</f>
         <v>1</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
+      <c r="L5">
+        <f>E5/C5</f>
         <v>1.2721518987341771</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
+      <c r="M5">
+        <f>F5/C5</f>
         <v>1.2721518987341771</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <f>G5/C5</f>
+        <v>1.2721518987341771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3544,23 +3589,30 @@
       <c r="F6">
         <v>204</v>
       </c>
-      <c r="H6">
+      <c r="G6">
+        <v>204</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
+      <c r="K6">
+        <f>D6/C6</f>
         <v>1</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
+      <c r="L6">
+        <f>E6/C6</f>
         <v>2.193548387096774</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
+      <c r="M6">
+        <f>F6/C6</f>
         <v>2.193548387096774</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f>G6/C6</f>
+        <v>2.193548387096774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3579,23 +3631,30 @@
       <c r="F7">
         <v>146</v>
       </c>
-      <c r="H7">
+      <c r="G7">
+        <v>146</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
+      <c r="K7">
+        <f>D7/C7</f>
         <v>1</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
+      <c r="L7">
+        <f>E7/C7</f>
         <v>1</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
+      <c r="M7">
+        <f>F7/C7</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <f>G7/C7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3614,23 +3673,30 @@
       <c r="F8">
         <v>257</v>
       </c>
-      <c r="H8">
+      <c r="G8">
+        <v>344</v>
+      </c>
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="K8">
+        <f>D8/C8</f>
         <v>1</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
+      <c r="L8">
+        <f>E8/C8</f>
         <v>1.5029239766081872</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
+      <c r="M8">
+        <f>F8/C8</f>
         <v>1.5029239766081872</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <f>G8/C8</f>
+        <v>2.0116959064327484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3649,23 +3715,30 @@
       <c r="F9">
         <v>216</v>
       </c>
-      <c r="H9">
+      <c r="G9">
+        <v>216</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="K9">
+        <f>D9/C9</f>
         <v>1.0046511627906978</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
+      <c r="L9">
+        <f>E9/C9</f>
         <v>1.0046511627906978</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
+      <c r="M9">
+        <f>F9/C9</f>
         <v>1.0046511627906978</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <f>G9/C9</f>
+        <v>1.0046511627906978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3673,7 +3746,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D10">
         <v>260</v>
@@ -3684,23 +3757,30 @@
       <c r="F10">
         <v>262</v>
       </c>
-      <c r="H10">
+      <c r="G10">
+        <v>262</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1.1453744493392071</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1.1453744493392071</v>
-      </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>1.1541850220264318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D10/C10</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L10">
+        <f>E10/C10</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="M10">
+        <f>F10/C10</f>
+        <v>1.1196581196581197</v>
+      </c>
+      <c r="N10">
+        <f>G10/C10</f>
+        <v>1.1196581196581197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3719,23 +3799,30 @@
       <c r="F11">
         <v>175</v>
       </c>
-      <c r="H11">
+      <c r="G11">
+        <v>175</v>
+      </c>
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+      <c r="K11">
+        <f>D11/C11</f>
         <v>1.1290322580645162</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
+      <c r="L11">
+        <f>E11/C11</f>
         <v>1.1290322580645162</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
+      <c r="M11">
+        <f>F11/C11</f>
         <v>1.1290322580645162</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N11">
+        <f>G11/C11</f>
+        <v>1.1290322580645162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3754,23 +3841,30 @@
       <c r="F12">
         <v>239</v>
       </c>
-      <c r="H12">
+      <c r="G12">
+        <v>329</v>
+      </c>
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="K12">
+        <f>D12/C12</f>
         <v>1</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
+      <c r="L12">
+        <f>E12/C12</f>
         <v>1.3351955307262571</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
+      <c r="M12">
+        <f>F12/C12</f>
         <v>1.3351955307262571</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <f>G12/C12</f>
+        <v>1.8379888268156424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3789,23 +3883,30 @@
       <c r="F13">
         <v>235</v>
       </c>
-      <c r="H13">
+      <c r="G13">
+        <v>235</v>
+      </c>
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
+      <c r="K13">
+        <f>D13/C13</f>
         <v>1.0755555555555556</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
+      <c r="L13">
+        <f>E13/C13</f>
         <v>1.0755555555555556</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
+      <c r="M13">
+        <f>F13/C13</f>
         <v>1.0444444444444445</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <f>G13/C13</f>
+        <v>1.0444444444444445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3824,23 +3925,30 @@
       <c r="F14">
         <v>165</v>
       </c>
-      <c r="H14">
+      <c r="G14">
+        <v>165</v>
+      </c>
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="K14">
+        <f>D14/C14</f>
         <v>1.3658536585365855</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
+      <c r="L14">
+        <f>E14/C14</f>
         <v>1.2601626016260163</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
+      <c r="M14">
+        <f>F14/C14</f>
         <v>1.3414634146341464</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <f>G14/C14</f>
+        <v>1.3414634146341464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3859,23 +3967,30 @@
       <c r="F15">
         <v>183</v>
       </c>
-      <c r="H15">
+      <c r="G15">
+        <v>183</v>
+      </c>
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
+      <c r="K15">
+        <f>D15/C15</f>
         <v>1.2922077922077921</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
+      <c r="L15">
+        <f>E15/C15</f>
         <v>1</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
+      <c r="M15">
+        <f>F15/C15</f>
         <v>1.1883116883116882</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <f>G15/C15</f>
+        <v>1.1883116883116882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3894,23 +4009,30 @@
       <c r="F16">
         <v>149</v>
       </c>
-      <c r="H16">
+      <c r="G16">
+        <v>149</v>
+      </c>
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
+      <c r="K16">
+        <f>D16/C16</f>
         <v>1</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
+      <c r="L16">
+        <f>E16/C16</f>
         <v>1</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
+      <c r="M16">
+        <f>F16/C16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <f>G16/C16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3929,23 +4051,30 @@
       <c r="F17">
         <v>160</v>
       </c>
-      <c r="H17">
+      <c r="G17">
+        <v>160</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
+      <c r="K17">
+        <f>D17/C17</f>
         <v>1.5384615384615385</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
+      <c r="L17">
+        <f>E17/C17</f>
         <v>1.2403846153846154</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
+      <c r="M17">
+        <f>F17/C17</f>
         <v>1.5384615384615385</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <f>G17/C17</f>
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3964,23 +4093,30 @@
       <c r="F18">
         <v>332</v>
       </c>
-      <c r="H18">
+      <c r="G18">
+        <v>332</v>
+      </c>
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
+      <c r="K18">
+        <f>D18/C18</f>
         <v>1</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
+      <c r="L18">
+        <f>E18/C18</f>
         <v>1.296875</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
+      <c r="M18">
+        <f>F18/C18</f>
         <v>1.296875</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <f>G18/C18</f>
+        <v>1.296875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3999,23 +4135,30 @@
       <c r="F19">
         <v>133</v>
       </c>
-      <c r="H19">
+      <c r="G19">
+        <v>133</v>
+      </c>
+      <c r="J19">
         <v>5</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
+      <c r="K19">
+        <f>D19/C19</f>
         <v>1</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
+      <c r="L19">
+        <f>E19/C19</f>
         <v>1</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
+      <c r="M19">
+        <f>F19/C19</f>
         <v>1.2788461538461537</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <f>G19/C19</f>
+        <v>1.2788461538461537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4034,23 +4177,30 @@
       <c r="F20">
         <v>234</v>
       </c>
-      <c r="H20">
+      <c r="G20">
+        <v>234</v>
+      </c>
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
+      <c r="K20">
+        <f>D20/C20</f>
         <v>1.3655913978494623</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
+      <c r="L20">
+        <f>E20/C20</f>
         <v>1.2580645161290323</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
+      <c r="M20">
+        <f>F20/C20</f>
         <v>1.2580645161290323</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <f>G20/C20</f>
+        <v>1.2580645161290323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4069,23 +4219,30 @@
       <c r="F21">
         <v>299</v>
       </c>
-      <c r="H21">
+      <c r="G21">
+        <v>299</v>
+      </c>
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
+      <c r="K21">
+        <f>D21/C21</f>
         <v>1.036734693877551</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
+      <c r="L21">
+        <f>E21/C21</f>
         <v>1.036734693877551</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
+      <c r="M21">
+        <f>F21/C21</f>
         <v>1.2204081632653061</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f>G21/C21</f>
+        <v>1.2204081632653061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4093,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="D22">
         <v>293</v>
@@ -4104,23 +4261,30 @@
       <c r="F22">
         <v>277</v>
       </c>
-      <c r="H22">
+      <c r="G22">
+        <v>192</v>
+      </c>
+      <c r="J22">
         <v>6</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>1.0732600732600732</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>1.0146520146520146</v>
-      </c>
       <c r="K22">
-        <f t="shared" si="2"/>
-        <v>1.0146520146520146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D22/C22</f>
+        <v>1.5260416666666667</v>
+      </c>
+      <c r="L22">
+        <f>E22/C22</f>
+        <v>1.4427083333333333</v>
+      </c>
+      <c r="M22">
+        <f>F22/C22</f>
+        <v>1.4427083333333333</v>
+      </c>
+      <c r="N22">
+        <f>G22/C22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4128,7 +4292,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D23">
         <v>207</v>
@@ -4139,23 +4303,30 @@
       <c r="F23">
         <v>192</v>
       </c>
-      <c r="H23">
+      <c r="G23">
+        <v>192</v>
+      </c>
+      <c r="J23">
         <v>6</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>1.2321428571428572</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>1.2321428571428572</v>
-      </c>
       <c r="K23">
-        <f t="shared" si="2"/>
-        <v>1.1428571428571428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D23/C23</f>
+        <v>1.29375</v>
+      </c>
+      <c r="L23">
+        <f>E23/C23</f>
+        <v>1.29375</v>
+      </c>
+      <c r="M23">
+        <f>F23/C23</f>
+        <v>1.2</v>
+      </c>
+      <c r="N23">
+        <f>G23/C23</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4174,23 +4345,30 @@
       <c r="F24">
         <v>298</v>
       </c>
-      <c r="H24">
+      <c r="G24">
+        <v>298</v>
+      </c>
+      <c r="J24">
         <v>6</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
+      <c r="K24">
+        <f>D24/C24</f>
         <v>1</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
+      <c r="L24">
+        <f>E24/C24</f>
         <v>1.3013100436681222</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
+      <c r="M24">
+        <f>F24/C24</f>
         <v>1.3013100436681222</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N24">
+        <f>G24/C24</f>
+        <v>1.3013100436681222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4198,7 +4376,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D25">
         <v>238</v>
@@ -4209,23 +4387,30 @@
       <c r="F25">
         <v>207</v>
       </c>
-      <c r="H25">
+      <c r="G25">
+        <v>207</v>
+      </c>
+      <c r="J25">
         <v>6</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>1.1497584541062802</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D25/C25</f>
+        <v>1.2268041237113403</v>
+      </c>
+      <c r="L25">
+        <f>E25/C25</f>
+        <v>1.0670103092783505</v>
+      </c>
+      <c r="M25">
+        <f>F25/C25</f>
+        <v>1.0670103092783505</v>
+      </c>
+      <c r="N25">
+        <f>G25/C25</f>
+        <v>1.0670103092783505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4233,7 +4418,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D26">
         <v>260</v>
@@ -4244,23 +4429,30 @@
       <c r="F26">
         <v>260</v>
       </c>
-      <c r="H26">
+      <c r="G26">
+        <v>260</v>
+      </c>
+      <c r="J26">
         <v>6</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D26/C26</f>
+        <v>1.0612244897959184</v>
+      </c>
+      <c r="L26">
+        <f>E26/C26</f>
+        <v>1.0612244897959184</v>
+      </c>
+      <c r="M26">
+        <f>F26/C26</f>
+        <v>1.0612244897959184</v>
+      </c>
+      <c r="N26">
+        <f>G26/C26</f>
+        <v>1.0612244897959184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
@@ -4268,7 +4460,7 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="D27">
         <v>176</v>
@@ -4279,23 +4471,30 @@
       <c r="F27">
         <v>266</v>
       </c>
-      <c r="H27">
+      <c r="G27">
+        <v>266</v>
+      </c>
+      <c r="J27">
         <v>6</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>0.78222222222222226</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>1.1822222222222223</v>
-      </c>
       <c r="K27">
-        <f t="shared" si="2"/>
-        <v>1.1822222222222223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D27/C27</f>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f>E27/C27</f>
+        <v>1.5113636363636365</v>
+      </c>
+      <c r="M27">
+        <f>F27/C27</f>
+        <v>1.5113636363636365</v>
+      </c>
+      <c r="N27">
+        <f>G27/C27</f>
+        <v>1.5113636363636365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
@@ -4303,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D28">
         <v>175</v>
@@ -4314,23 +4513,30 @@
       <c r="F28">
         <v>175</v>
       </c>
-      <c r="H28">
+      <c r="G28">
+        <v>175</v>
+      </c>
+      <c r="J28">
         <v>6</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D28/C28</f>
+        <v>1.0174418604651163</v>
+      </c>
+      <c r="L28">
+        <f>E28/C28</f>
+        <v>1.0174418604651163</v>
+      </c>
+      <c r="M28">
+        <f>F28/C28</f>
+        <v>1.0174418604651163</v>
+      </c>
+      <c r="N28">
+        <f>G28/C28</f>
+        <v>1.0174418604651163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4338,7 +4544,7 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D29">
         <v>246</v>
@@ -4349,23 +4555,30 @@
       <c r="F29">
         <v>288</v>
       </c>
-      <c r="H29">
+      <c r="G29">
+        <v>227</v>
+      </c>
+      <c r="J29">
         <v>6</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
+      <c r="K29">
+        <f>D29/C29</f>
+        <v>1.0837004405286343</v>
+      </c>
+      <c r="L29">
+        <f>E29/C29</f>
+        <v>1.2687224669603525</v>
+      </c>
+      <c r="M29">
+        <f>F29/C29</f>
+        <v>1.2687224669603525</v>
+      </c>
+      <c r="N29">
+        <f>G29/C29</f>
         <v>1</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>1.1707317073170731</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>1.1707317073170731</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4373,7 +4586,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4384,23 +4597,30 @@
       <c r="F30">
         <v>181</v>
       </c>
-      <c r="H30">
+      <c r="G30">
+        <v>181</v>
+      </c>
+      <c r="J30">
         <v>6</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>1.1379310344827587</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>1.2482758620689656</v>
-      </c>
       <c r="K30">
-        <f t="shared" si="2"/>
-        <v>1.2482758620689656</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D30/C30</f>
+        <v>1.3524590163934427</v>
+      </c>
+      <c r="L30">
+        <f>E30/C30</f>
+        <v>1.4836065573770492</v>
+      </c>
+      <c r="M30">
+        <f>F30/C30</f>
+        <v>1.4836065573770492</v>
+      </c>
+      <c r="N30">
+        <f>G30/C30</f>
+        <v>1.4836065573770492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -4408,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>126</v>
@@ -4419,23 +4639,30 @@
       <c r="F31">
         <v>227</v>
       </c>
-      <c r="H31">
+      <c r="G31">
+        <v>227</v>
+      </c>
+      <c r="J31">
         <v>6</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>0.69613259668508287</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>1.2541436464088398</v>
-      </c>
       <c r="K31">
-        <f t="shared" si="2"/>
-        <v>1.2541436464088398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D31/C31</f>
+        <v>1.1886792452830188</v>
+      </c>
+      <c r="L31">
+        <f>E31/C31</f>
+        <v>2.141509433962264</v>
+      </c>
+      <c r="M31">
+        <f>F31/C31</f>
+        <v>2.141509433962264</v>
+      </c>
+      <c r="N31">
+        <f>G31/C31</f>
+        <v>2.141509433962264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>11</v>
       </c>
@@ -4454,23 +4681,30 @@
       <c r="F32">
         <v>251</v>
       </c>
-      <c r="H32">
+      <c r="G32">
+        <v>251</v>
+      </c>
+      <c r="J32">
         <v>6</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
+      <c r="K32">
+        <f>D32/C32</f>
         <v>1.270935960591133</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
+      <c r="L32">
+        <f>E32/C32</f>
         <v>1.3251231527093597</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
+      <c r="M32">
+        <f>F32/C32</f>
         <v>1.2364532019704433</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N32">
+        <f>G32/C32</f>
+        <v>1.2364532019704433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>12</v>
       </c>
@@ -4478,7 +4712,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D33">
         <v>245</v>
@@ -4489,23 +4723,30 @@
       <c r="F33">
         <v>297</v>
       </c>
-      <c r="H33">
+      <c r="G33">
+        <v>297</v>
+      </c>
+      <c r="J33">
         <v>6</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>1.2122448979591838</v>
-      </c>
       <c r="K33">
-        <f t="shared" si="2"/>
-        <v>1.2122448979591838</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D33/C33</f>
+        <v>1.0470085470085471</v>
+      </c>
+      <c r="L33">
+        <f>E33/C33</f>
+        <v>1.2692307692307692</v>
+      </c>
+      <c r="M33">
+        <f>F33/C33</f>
+        <v>1.2692307692307692</v>
+      </c>
+      <c r="N33">
+        <f>G33/C33</f>
+        <v>1.2692307692307692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>13</v>
       </c>
@@ -4513,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D34">
         <v>169</v>
@@ -4524,23 +4765,30 @@
       <c r="F34">
         <v>217</v>
       </c>
-      <c r="H34">
+      <c r="G34">
+        <v>169</v>
+      </c>
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>1.2840236686390532</v>
-      </c>
       <c r="K34">
-        <f t="shared" si="2"/>
-        <v>1.2840236686390532</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D34/C34</f>
+        <v>1.111842105263158</v>
+      </c>
+      <c r="L34">
+        <f>E34/C34</f>
+        <v>1.4276315789473684</v>
+      </c>
+      <c r="M34">
+        <f>F34/C34</f>
+        <v>1.4276315789473684</v>
+      </c>
+      <c r="N34">
+        <f>G34/C34</f>
+        <v>1.111842105263158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>14</v>
       </c>
@@ -4559,23 +4807,30 @@
       <c r="F35">
         <v>209</v>
       </c>
-      <c r="H35">
+      <c r="G35">
+        <v>209</v>
+      </c>
+      <c r="J35">
         <v>6</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
+      <c r="K35">
+        <f>D35/C35</f>
         <v>1.203125</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
+      <c r="L35">
+        <f>E35/C35</f>
         <v>1.6328125</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
+      <c r="M35">
+        <f>F35/C35</f>
         <v>1.6328125</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N35">
+        <f>G35/C35</f>
+        <v>1.6328125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15</v>
       </c>
@@ -4583,7 +4838,7 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D36">
         <v>242</v>
@@ -4594,23 +4849,30 @@
       <c r="F36">
         <v>234</v>
       </c>
-      <c r="H36">
+      <c r="G36">
+        <v>234</v>
+      </c>
+      <c r="J36">
         <v>6</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>1.03862660944206</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>1.0042918454935623</v>
-      </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>1.0042918454935623</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D36/C36</f>
+        <v>1.1152073732718895</v>
+      </c>
+      <c r="L36">
+        <f>E36/C36</f>
+        <v>1.0783410138248848</v>
+      </c>
+      <c r="M36">
+        <f>F36/C36</f>
+        <v>1.0783410138248848</v>
+      </c>
+      <c r="N36">
+        <f>G36/C36</f>
+        <v>1.0783410138248848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4618,7 +4880,7 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D37">
         <v>180</v>
@@ -4629,23 +4891,30 @@
       <c r="F37">
         <v>250</v>
       </c>
-      <c r="H37">
+      <c r="G37">
+        <v>250</v>
+      </c>
+      <c r="J37">
         <v>6</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0.73770491803278693</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>1.0245901639344261</v>
-      </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>1.0245901639344261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D37/C37</f>
+        <v>1.2413793103448276</v>
+      </c>
+      <c r="L37">
+        <f>E37/C37</f>
+        <v>1.7241379310344827</v>
+      </c>
+      <c r="M37">
+        <f>F37/C37</f>
+        <v>1.7241379310344827</v>
+      </c>
+      <c r="N37">
+        <f>G37/C37</f>
+        <v>1.7241379310344827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>17</v>
       </c>
@@ -4664,23 +4933,30 @@
       <c r="F38">
         <v>265</v>
       </c>
-      <c r="H38">
+      <c r="G38">
+        <v>265</v>
+      </c>
+      <c r="J38">
         <v>6</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
+      <c r="K38">
+        <f>D38/C38</f>
         <v>1</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
+      <c r="L38">
+        <f>E38/C38</f>
         <v>1.1990950226244343</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
+      <c r="M38">
+        <f>F38/C38</f>
         <v>1.1990950226244343</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N38">
+        <f>G38/C38</f>
+        <v>1.1990950226244343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>18</v>
       </c>
@@ -4688,7 +4964,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D39">
         <v>209</v>
@@ -4699,23 +4975,30 @@
       <c r="F39">
         <v>198</v>
       </c>
-      <c r="H39">
+      <c r="G39">
+        <v>198</v>
+      </c>
+      <c r="J39">
         <v>6</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D39/C39</f>
+        <v>1.1546961325966851</v>
+      </c>
+      <c r="L39">
+        <f>E39/C39</f>
+        <v>1.0939226519337018</v>
+      </c>
+      <c r="M39">
+        <f>F39/C39</f>
+        <v>1.0939226519337018</v>
+      </c>
+      <c r="N39">
+        <f>G39/C39</f>
+        <v>1.0939226519337018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
@@ -4723,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="D40">
         <v>153</v>
@@ -4734,23 +5017,30 @@
       <c r="F40">
         <v>252</v>
       </c>
-      <c r="H40">
+      <c r="G40">
+        <v>252</v>
+      </c>
+      <c r="J40">
         <v>6</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>0.76119402985074625</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>1.2537313432835822</v>
-      </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>1.2537313432835822</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D40/C40</f>
+        <v>1.0851063829787233</v>
+      </c>
+      <c r="L40">
+        <f>E40/C40</f>
+        <v>1.7872340425531914</v>
+      </c>
+      <c r="M40">
+        <f>F40/C40</f>
+        <v>1.7872340425531914</v>
+      </c>
+      <c r="N40">
+        <f>G40/C40</f>
+        <v>1.7872340425531914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20</v>
       </c>
@@ -4769,23 +5059,30 @@
       <c r="F41">
         <v>248</v>
       </c>
-      <c r="H41">
+      <c r="G41">
+        <v>248</v>
+      </c>
+      <c r="J41">
         <v>6</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
+      <c r="K41">
+        <f>D41/C41</f>
         <v>1</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
+      <c r="L41">
+        <f>E41/C41</f>
         <v>1.8507462686567164</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
+      <c r="M41">
+        <f>F41/C41</f>
         <v>1.8507462686567164</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N41">
+        <f>G41/C41</f>
+        <v>1.8507462686567164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4804,23 +5101,30 @@
       <c r="F42">
         <v>145</v>
       </c>
-      <c r="H42">
+      <c r="G42">
+        <v>162</v>
+      </c>
+      <c r="J42">
         <v>7</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
+      <c r="K42">
+        <f>D42/C42</f>
         <v>1.0984848484848484</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="1"/>
+      <c r="L42">
+        <f>E42/C42</f>
         <v>1.0984848484848484</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
+      <c r="M42">
+        <f>F42/C42</f>
         <v>1.0984848484848484</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N42">
+        <f>G42/C42</f>
+        <v>1.2272727272727273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4839,23 +5143,30 @@
       <c r="F43">
         <v>251</v>
       </c>
-      <c r="H43">
+      <c r="G43">
+        <v>224</v>
+      </c>
+      <c r="J43">
         <v>7</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
+      <c r="K43">
+        <f>D43/C43</f>
         <v>1.3015873015873016</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="1"/>
+      <c r="L43">
+        <f>E43/C43</f>
         <v>1.3280423280423281</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
+      <c r="M43">
+        <f>F43/C43</f>
         <v>1.3280423280423281</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N43">
+        <f>G43/C43</f>
+        <v>1.1851851851851851</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4874,23 +5185,30 @@
       <c r="F44">
         <v>130</v>
       </c>
-      <c r="H44">
+      <c r="G44">
+        <v>130</v>
+      </c>
+      <c r="J44">
         <v>7</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
+      <c r="K44">
+        <f>D44/C44</f>
         <v>1.1030927835051547</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="1"/>
+      <c r="L44">
+        <f>E44/C44</f>
         <v>1.3402061855670102</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
+      <c r="M44">
+        <f>F44/C44</f>
         <v>1.3402061855670102</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N44">
+        <f>G44/C44</f>
+        <v>1.3402061855670102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4</v>
       </c>
@@ -4909,23 +5227,30 @@
       <c r="F45">
         <v>296</v>
       </c>
-      <c r="H45">
+      <c r="G45">
+        <v>296</v>
+      </c>
+      <c r="J45">
         <v>7</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
+      <c r="K45">
+        <f>D45/C45</f>
         <v>1.3217821782178218</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
+      <c r="L45">
+        <f>E45/C45</f>
         <v>1.4405940594059405</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
+      <c r="M45">
+        <f>F45/C45</f>
         <v>1.4653465346534653</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N45">
+        <f>G45/C45</f>
+        <v>1.4653465346534653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -4933,7 +5258,7 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D46">
         <v>301</v>
@@ -4944,23 +5269,30 @@
       <c r="F46">
         <v>290</v>
       </c>
-      <c r="H46">
+      <c r="G46">
+        <v>290</v>
+      </c>
+      <c r="J46">
         <v>7</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>1.3259911894273129</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="1"/>
-        <v>1.277533039647577</v>
-      </c>
       <c r="K46">
-        <f t="shared" si="2"/>
-        <v>1.277533039647577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D46/C46</f>
+        <v>1.17578125</v>
+      </c>
+      <c r="L46">
+        <f>E46/C46</f>
+        <v>1.1328125</v>
+      </c>
+      <c r="M46">
+        <f>F46/C46</f>
+        <v>1.1328125</v>
+      </c>
+      <c r="N46">
+        <f>G46/C46</f>
+        <v>1.1328125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4979,23 +5311,30 @@
       <c r="F47">
         <v>350</v>
       </c>
-      <c r="H47">
+      <c r="G47">
+        <v>313</v>
+      </c>
+      <c r="J47">
         <v>7</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
+      <c r="K47">
+        <f>D47/C47</f>
         <v>1.0234375</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="1"/>
+      <c r="L47">
+        <f>E47/C47</f>
         <v>1.22265625</v>
       </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
+      <c r="M47">
+        <f>F47/C47</f>
         <v>1.3671875</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N47">
+        <f>G47/C47</f>
+        <v>1.22265625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>7</v>
       </c>
@@ -5014,23 +5353,30 @@
       <c r="F48">
         <v>178</v>
       </c>
-      <c r="H48">
+      <c r="G48">
+        <v>166</v>
+      </c>
+      <c r="J48">
         <v>7</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
+      <c r="K48">
+        <f>D48/C48</f>
         <v>1.225609756097561</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="1"/>
+      <c r="L48">
+        <f>E48/C48</f>
         <v>1.0853658536585367</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="2"/>
+      <c r="M48">
+        <f>F48/C48</f>
         <v>1.0853658536585367</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N48">
+        <f>G48/C48</f>
+        <v>1.0121951219512195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8</v>
       </c>
@@ -5038,7 +5384,7 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D49">
         <v>134</v>
@@ -5049,23 +5395,30 @@
       <c r="F49">
         <v>160</v>
       </c>
-      <c r="H49">
+      <c r="G49">
+        <v>160</v>
+      </c>
+      <c r="J49">
         <v>7</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>0.88157894736842102</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="1"/>
-        <v>1.0526315789473684</v>
-      </c>
       <c r="K49">
-        <f t="shared" si="2"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D49/C49</f>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <f>E49/C49</f>
+        <v>1.1940298507462686</v>
+      </c>
+      <c r="M49">
+        <f>F49/C49</f>
+        <v>1.1940298507462686</v>
+      </c>
+      <c r="N49">
+        <f>G49/C49</f>
+        <v>1.1940298507462686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>9</v>
       </c>
@@ -5084,23 +5437,30 @@
       <c r="F50">
         <v>181</v>
       </c>
-      <c r="H50">
+      <c r="G50">
+        <v>181</v>
+      </c>
+      <c r="J50">
         <v>7</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="0"/>
+      <c r="K50">
+        <f>D50/C50</f>
         <v>1</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="1"/>
+      <c r="L50">
+        <f>E50/C50</f>
         <v>1.5210084033613445</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
+      <c r="M50">
+        <f>F50/C50</f>
         <v>1.5210084033613445</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N50">
+        <f>G50/C50</f>
+        <v>1.5210084033613445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>10</v>
       </c>
@@ -5119,23 +5479,30 @@
       <c r="F51">
         <v>140</v>
       </c>
-      <c r="H51">
+      <c r="G51">
+        <v>140</v>
+      </c>
+      <c r="J51">
         <v>7</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
+      <c r="K51">
+        <f>D51/C51</f>
         <v>1.296875</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="1"/>
+      <c r="L51">
+        <f>E51/C51</f>
         <v>1.09375</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="2"/>
+      <c r="M51">
+        <f>F51/C51</f>
         <v>1.09375</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N51">
+        <f>G51/C51</f>
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>11</v>
       </c>
@@ -5154,23 +5521,30 @@
       <c r="F52">
         <v>279</v>
       </c>
-      <c r="H52">
+      <c r="G52">
+        <v>306</v>
+      </c>
+      <c r="J52">
         <v>7</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
+      <c r="K52">
+        <f>D52/C52</f>
         <v>1.1730769230769231</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="1"/>
+      <c r="L52">
+        <f>E52/C52</f>
         <v>1.3413461538461537</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="2"/>
+      <c r="M52">
+        <f>F52/C52</f>
         <v>1.3413461538461537</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N52">
+        <f>G52/C52</f>
+        <v>1.4711538461538463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>12</v>
       </c>
@@ -5178,7 +5552,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D53">
         <v>356</v>
@@ -5189,23 +5563,30 @@
       <c r="F53">
         <v>314</v>
       </c>
-      <c r="H53">
+      <c r="G53">
+        <v>255</v>
+      </c>
+      <c r="J53">
         <v>7</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>1.459016393442623</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="1"/>
-        <v>1.2868852459016393</v>
-      </c>
       <c r="K53">
-        <f t="shared" si="2"/>
-        <v>1.2868852459016393</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D53/C53</f>
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="L53">
+        <f>E53/C53</f>
+        <v>1.256</v>
+      </c>
+      <c r="M53">
+        <f>F53/C53</f>
+        <v>1.256</v>
+      </c>
+      <c r="N53">
+        <f>G53/C53</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>13</v>
       </c>
@@ -5224,23 +5605,30 @@
       <c r="F54">
         <v>161</v>
       </c>
-      <c r="H54">
+      <c r="G54">
+        <v>161</v>
+      </c>
+      <c r="J54">
         <v>7</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
+      <c r="K54">
+        <f>D54/C54</f>
         <v>1.1258741258741258</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="1"/>
+      <c r="L54">
+        <f>E54/C54</f>
         <v>1.1258741258741258</v>
       </c>
-      <c r="K54">
-        <f t="shared" si="2"/>
+      <c r="M54">
+        <f>F54/C54</f>
         <v>1.1258741258741258</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N54">
+        <f>G54/C54</f>
+        <v>1.1258741258741258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>14</v>
       </c>
@@ -5248,7 +5636,7 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D55">
         <v>210</v>
@@ -5259,23 +5647,30 @@
       <c r="F55">
         <v>176</v>
       </c>
-      <c r="H55">
+      <c r="G55">
+        <v>176</v>
+      </c>
+      <c r="J55">
         <v>7</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>1.1931818181818181</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K55">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D55/C55</f>
+        <v>1.4093959731543624</v>
+      </c>
+      <c r="L55">
+        <f>E55/C55</f>
+        <v>1.1812080536912752</v>
+      </c>
+      <c r="M55">
+        <f>F55/C55</f>
+        <v>1.1812080536912752</v>
+      </c>
+      <c r="N55">
+        <f>G55/C55</f>
+        <v>1.1812080536912752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>15</v>
       </c>
@@ -5294,23 +5689,30 @@
       <c r="F56">
         <v>162</v>
       </c>
-      <c r="H56">
+      <c r="G56">
+        <v>227</v>
+      </c>
+      <c r="J56">
         <v>7</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="0"/>
+      <c r="K56">
+        <f>D56/C56</f>
         <v>1.1597222222222223</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="1"/>
+      <c r="L56">
+        <f>E56/C56</f>
         <v>1.125</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="2"/>
+      <c r="M56">
+        <f>F56/C56</f>
         <v>1.125</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N56">
+        <f>G56/C56</f>
+        <v>1.5763888888888888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>16</v>
       </c>
@@ -5318,7 +5720,7 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D57">
         <v>232</v>
@@ -5329,23 +5731,30 @@
       <c r="F57">
         <v>227</v>
       </c>
-      <c r="H57">
+      <c r="G57">
+        <v>227</v>
+      </c>
+      <c r="J57">
         <v>7</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>1.0691244239631337</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="1"/>
-        <v>1.0460829493087558</v>
-      </c>
       <c r="K57">
-        <f t="shared" si="2"/>
-        <v>1.0460829493087558</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D57/C57</f>
+        <v>1.1776649746192893</v>
+      </c>
+      <c r="L57">
+        <f>E57/C57</f>
+        <v>1.1522842639593909</v>
+      </c>
+      <c r="M57">
+        <f>F57/C57</f>
+        <v>1.1522842639593909</v>
+      </c>
+      <c r="N57">
+        <f>G57/C57</f>
+        <v>1.1522842639593909</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>17</v>
       </c>
@@ -5353,7 +5762,7 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D58">
         <v>220</v>
@@ -5364,23 +5773,30 @@
       <c r="F58">
         <v>252</v>
       </c>
-      <c r="H58">
+      <c r="G58">
+        <v>252</v>
+      </c>
+      <c r="J58">
         <v>7</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>1.1891891891891893</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="1"/>
-        <v>1.3621621621621622</v>
-      </c>
       <c r="K58">
-        <f t="shared" si="2"/>
-        <v>1.3621621621621622</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D58/C58</f>
+        <v>1.1518324607329844</v>
+      </c>
+      <c r="L58">
+        <f>E58/C58</f>
+        <v>1.3193717277486912</v>
+      </c>
+      <c r="M58">
+        <f>F58/C58</f>
+        <v>1.3193717277486912</v>
+      </c>
+      <c r="N58">
+        <f>G58/C58</f>
+        <v>1.3193717277486912</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>18</v>
       </c>
@@ -5388,7 +5804,7 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D59">
         <v>170</v>
@@ -5399,23 +5815,30 @@
       <c r="F59">
         <v>167</v>
       </c>
-      <c r="H59">
+      <c r="G59">
+        <v>141</v>
+      </c>
+      <c r="J59">
         <v>7</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>1.2056737588652482</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K59">
-        <f t="shared" si="2"/>
-        <v>1.1843971631205674</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D59/C59</f>
+        <v>1.4049586776859504</v>
+      </c>
+      <c r="L59">
+        <f>E59/C59</f>
+        <v>1.165289256198347</v>
+      </c>
+      <c r="M59">
+        <f>F59/C59</f>
+        <v>1.3801652892561984</v>
+      </c>
+      <c r="N59">
+        <f>G59/C59</f>
+        <v>1.165289256198347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>19</v>
       </c>
@@ -5423,7 +5846,7 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D60">
         <v>337</v>
@@ -5434,23 +5857,30 @@
       <c r="F60">
         <v>255</v>
       </c>
-      <c r="H60">
+      <c r="G60">
+        <v>249</v>
+      </c>
+      <c r="J60">
         <v>7</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>1.4219409282700421</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="1"/>
-        <v>1.0506329113924051</v>
-      </c>
       <c r="K60">
-        <f t="shared" si="2"/>
-        <v>1.0759493670886076</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D60/C60</f>
+        <v>1.7193877551020409</v>
+      </c>
+      <c r="L60">
+        <f>E60/C60</f>
+        <v>1.2704081632653061</v>
+      </c>
+      <c r="M60">
+        <f>F60/C60</f>
+        <v>1.3010204081632653</v>
+      </c>
+      <c r="N60">
+        <f>G60/C60</f>
+        <v>1.2704081632653061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>20</v>
       </c>
@@ -5469,23 +5899,30 @@
       <c r="F61">
         <v>117</v>
       </c>
-      <c r="H61">
+      <c r="G61">
+        <v>117</v>
+      </c>
+      <c r="J61">
         <v>7</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
+      <c r="K61">
+        <f>D61/C61</f>
         <v>1.170940170940171</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="1"/>
+      <c r="L61">
+        <f>E61/C61</f>
         <v>1</v>
       </c>
-      <c r="K61">
-        <f t="shared" si="2"/>
+      <c r="M61">
+        <f>F61/C61</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N61">
+        <f>G61/C61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5493,7 +5930,7 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D62">
         <v>196</v>
@@ -5504,23 +5941,30 @@
       <c r="F62">
         <v>196</v>
       </c>
-      <c r="H62">
+      <c r="G62">
+        <v>196</v>
+      </c>
+      <c r="J62">
         <v>8</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>1.101123595505618</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="1"/>
-        <v>1.101123595505618</v>
-      </c>
       <c r="K62">
-        <f t="shared" si="2"/>
-        <v>1.101123595505618</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D62/C62</f>
+        <v>1.4961832061068703</v>
+      </c>
+      <c r="L62">
+        <f>E62/C62</f>
+        <v>1.4961832061068703</v>
+      </c>
+      <c r="M62">
+        <f>F62/C62</f>
+        <v>1.4961832061068703</v>
+      </c>
+      <c r="N62">
+        <f>G62/C62</f>
+        <v>1.4961832061068703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5528,7 +5972,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="D63">
         <v>188</v>
@@ -5539,23 +5983,30 @@
       <c r="F63">
         <v>269</v>
       </c>
-      <c r="H63">
+      <c r="G63">
+        <v>269</v>
+      </c>
+      <c r="J63">
         <v>8</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>0.88262910798122063</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="1"/>
-        <v>1.2629107981220657</v>
-      </c>
       <c r="K63">
-        <f t="shared" si="2"/>
-        <v>1.2629107981220657</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D63/C63</f>
+        <v>1.1604938271604939</v>
+      </c>
+      <c r="L63">
+        <f>E63/C63</f>
+        <v>1.6604938271604939</v>
+      </c>
+      <c r="M63">
+        <f>F63/C63</f>
+        <v>1.6604938271604939</v>
+      </c>
+      <c r="N63">
+        <f>G63/C63</f>
+        <v>1.6604938271604939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>3</v>
       </c>
@@ -5574,23 +6025,30 @@
       <c r="F64">
         <v>236</v>
       </c>
-      <c r="H64">
+      <c r="G64">
+        <v>236</v>
+      </c>
+      <c r="J64">
         <v>8</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="0"/>
+      <c r="K64">
+        <f>D64/C64</f>
         <v>1.1348837209302325</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="1"/>
+      <c r="L64">
+        <f>E64/C64</f>
         <v>1.0976744186046512</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="2"/>
+      <c r="M64">
+        <f>F64/C64</f>
         <v>1.0976744186046512</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N64">
+        <f>G64/C64</f>
+        <v>1.0976744186046512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5609,23 +6067,30 @@
       <c r="F65">
         <v>130</v>
       </c>
-      <c r="H65">
+      <c r="G65">
+        <v>130</v>
+      </c>
+      <c r="J65">
         <v>8</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
+      <c r="K65">
+        <f>D65/C65</f>
         <v>1</v>
       </c>
-      <c r="J65">
-        <f t="shared" si="1"/>
+      <c r="L65">
+        <f>E65/C65</f>
         <v>1</v>
       </c>
-      <c r="K65">
-        <f t="shared" si="2"/>
+      <c r="M65">
+        <f>F65/C65</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N65">
+        <f>G65/C65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5</v>
       </c>
@@ -5633,7 +6098,7 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D66">
         <v>339</v>
@@ -5644,23 +6109,30 @@
       <c r="F66">
         <v>303</v>
       </c>
-      <c r="H66">
+      <c r="G66">
+        <v>303</v>
+      </c>
+      <c r="J66">
         <v>8</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>1.2696629213483146</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="1"/>
-        <v>1.1348314606741574</v>
-      </c>
       <c r="K66">
-        <f t="shared" si="2"/>
-        <v>1.1348314606741574</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D66/C66</f>
+        <v>1.4549356223175967</v>
+      </c>
+      <c r="L66">
+        <f>E66/C66</f>
+        <v>1.3004291845493563</v>
+      </c>
+      <c r="M66">
+        <f>F66/C66</f>
+        <v>1.3004291845493563</v>
+      </c>
+      <c r="N66">
+        <f>G66/C66</f>
+        <v>1.3004291845493563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6</v>
       </c>
@@ -5668,7 +6140,7 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67">
         <v>263</v>
@@ -5679,23 +6151,30 @@
       <c r="F67">
         <v>226</v>
       </c>
-      <c r="H67">
+      <c r="G67">
+        <v>226</v>
+      </c>
+      <c r="J67">
         <v>8</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I101" si="3">D67/C67</f>
-        <v>1.4216216216216215</v>
-      </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J101" si="4">E67/C67</f>
-        <v>1.8432432432432433</v>
-      </c>
       <c r="K67">
-        <f t="shared" ref="K67:K101" si="5">F67/C67</f>
-        <v>1.2216216216216216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D67/C67</f>
+        <v>1.4293478260869565</v>
+      </c>
+      <c r="L67">
+        <f>E67/C67</f>
+        <v>1.8532608695652173</v>
+      </c>
+      <c r="M67">
+        <f>F67/C67</f>
+        <v>1.2282608695652173</v>
+      </c>
+      <c r="N67">
+        <f>G67/C67</f>
+        <v>1.2282608695652173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>7</v>
       </c>
@@ -5714,23 +6193,30 @@
       <c r="F68">
         <v>190</v>
       </c>
-      <c r="H68">
+      <c r="G68">
+        <v>190</v>
+      </c>
+      <c r="J68">
         <v>8</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="3"/>
+      <c r="K68">
+        <f>D68/C68</f>
         <v>1.2210526315789474</v>
       </c>
-      <c r="J68">
-        <f t="shared" si="4"/>
+      <c r="L68">
+        <f>E68/C68</f>
         <v>1</v>
       </c>
-      <c r="K68">
-        <f t="shared" si="5"/>
+      <c r="M68">
+        <f>F68/C68</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N68">
+        <f>G68/C68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>8</v>
       </c>
@@ -5749,23 +6235,30 @@
       <c r="F69">
         <v>305</v>
       </c>
-      <c r="H69">
+      <c r="G69">
+        <v>281</v>
+      </c>
+      <c r="J69">
         <v>8</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="3"/>
+      <c r="K69">
+        <f>D69/C69</f>
         <v>1.0398406374501992</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="4"/>
+      <c r="L69">
+        <f>E69/C69</f>
         <v>1.2151394422310757</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="5"/>
+      <c r="M69">
+        <f>F69/C69</f>
         <v>1.2151394422310757</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N69">
+        <f>G69/C69</f>
+        <v>1.1195219123505975</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>9</v>
       </c>
@@ -5773,7 +6266,7 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D70">
         <v>192</v>
@@ -5784,23 +6277,30 @@
       <c r="F70">
         <v>248</v>
       </c>
-      <c r="H70">
+      <c r="G70">
+        <v>233</v>
+      </c>
+      <c r="J70">
         <v>8</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="3"/>
-        <v>0.87671232876712324</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="4"/>
-        <v>1.1324200913242009</v>
-      </c>
       <c r="K70">
-        <f t="shared" si="5"/>
-        <v>1.1324200913242009</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D70/C70</f>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f>E70/C70</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="M70">
+        <f>F70/C70</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="N70">
+        <f>G70/C70</f>
+        <v>1.2135416666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>10</v>
       </c>
@@ -5808,7 +6308,7 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D71">
         <v>299</v>
@@ -5819,23 +6319,30 @@
       <c r="F71">
         <v>277</v>
       </c>
-      <c r="H71">
+      <c r="G71">
+        <v>277</v>
+      </c>
+      <c r="J71">
         <v>8</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="3"/>
-        <v>1.0794223826714802</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="K71">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D71/C71</f>
+        <v>1.103321033210332</v>
+      </c>
+      <c r="L71">
+        <f>E71/C71</f>
+        <v>1.0221402214022139</v>
+      </c>
+      <c r="M71">
+        <f>F71/C71</f>
+        <v>1.0221402214022139</v>
+      </c>
+      <c r="N71">
+        <f>G71/C71</f>
+        <v>1.0221402214022139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>11</v>
       </c>
@@ -5843,7 +6350,7 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D72">
         <v>154</v>
@@ -5854,23 +6361,30 @@
       <c r="F72">
         <v>154</v>
       </c>
-      <c r="H72">
+      <c r="G72">
+        <v>252</v>
+      </c>
+      <c r="J72">
         <v>8</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="K72">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D72/C72</f>
+        <v>1.1755725190839694</v>
+      </c>
+      <c r="L72">
+        <f>E72/C72</f>
+        <v>1.1755725190839694</v>
+      </c>
+      <c r="M72">
+        <f>F72/C72</f>
+        <v>1.1755725190839694</v>
+      </c>
+      <c r="N72">
+        <f>G72/C72</f>
+        <v>1.9236641221374047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>12</v>
       </c>
@@ -5878,7 +6392,7 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D73">
         <v>356</v>
@@ -5889,23 +6403,30 @@
       <c r="F73">
         <v>287</v>
       </c>
-      <c r="H73">
+      <c r="G73">
+        <v>287</v>
+      </c>
+      <c r="J73">
         <v>8</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="3"/>
-        <v>1.4833333333333334</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="4"/>
-        <v>1.1958333333333333</v>
-      </c>
       <c r="K73">
-        <f t="shared" si="5"/>
-        <v>1.1958333333333333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D73/C73</f>
+        <v>1.5682819383259912</v>
+      </c>
+      <c r="L73">
+        <f>E73/C73</f>
+        <v>1.2643171806167401</v>
+      </c>
+      <c r="M73">
+        <f>F73/C73</f>
+        <v>1.2643171806167401</v>
+      </c>
+      <c r="N73">
+        <f>G73/C73</f>
+        <v>1.2643171806167401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>13</v>
       </c>
@@ -5913,7 +6434,7 @@
         <v>8</v>
       </c>
       <c r="C74">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D74">
         <v>129</v>
@@ -5924,23 +6445,30 @@
       <c r="F74">
         <v>148</v>
       </c>
-      <c r="H74">
+      <c r="G74">
+        <v>148</v>
+      </c>
+      <c r="J74">
         <v>8</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="3"/>
-        <v>0.92142857142857137</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="4"/>
-        <v>1.0571428571428572</v>
-      </c>
       <c r="K74">
-        <f t="shared" si="5"/>
-        <v>1.0571428571428572</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D74/C74</f>
+        <v>1.032</v>
+      </c>
+      <c r="L74">
+        <f>E74/C74</f>
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="M74">
+        <f>F74/C74</f>
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="N74">
+        <f>G74/C74</f>
+        <v>1.1839999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>14</v>
       </c>
@@ -5959,23 +6487,30 @@
       <c r="F75">
         <v>227</v>
       </c>
-      <c r="H75">
+      <c r="G75">
+        <v>227</v>
+      </c>
+      <c r="J75">
         <v>8</v>
       </c>
-      <c r="I75">
-        <f t="shared" si="3"/>
+      <c r="K75">
+        <f>D75/C75</f>
         <v>1.2321428571428572</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="4"/>
+      <c r="L75">
+        <f>E75/C75</f>
         <v>1.4702380952380953</v>
       </c>
-      <c r="K75">
-        <f t="shared" si="5"/>
+      <c r="M75">
+        <f>F75/C75</f>
         <v>1.3511904761904763</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N75">
+        <f>G75/C75</f>
+        <v>1.3511904761904763</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>15</v>
       </c>
@@ -5983,7 +6518,7 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D76">
         <v>165</v>
@@ -5994,23 +6529,30 @@
       <c r="F76">
         <v>184</v>
       </c>
-      <c r="H76">
+      <c r="G76">
+        <v>184</v>
+      </c>
+      <c r="J76">
         <v>8</v>
       </c>
-      <c r="I76">
-        <f t="shared" si="3"/>
-        <v>0.9821428571428571</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="4"/>
-        <v>1.0952380952380953</v>
-      </c>
       <c r="K76">
-        <f t="shared" si="5"/>
-        <v>1.0952380952380953</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D76/C76</f>
+        <v>1.0122699386503067</v>
+      </c>
+      <c r="L76">
+        <f>E76/C76</f>
+        <v>1.1288343558282208</v>
+      </c>
+      <c r="M76">
+        <f>F76/C76</f>
+        <v>1.1288343558282208</v>
+      </c>
+      <c r="N76">
+        <f>G76/C76</f>
+        <v>1.1288343558282208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16</v>
       </c>
@@ -6018,7 +6560,7 @@
         <v>8</v>
       </c>
       <c r="C77">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D77">
         <v>123</v>
@@ -6029,23 +6571,30 @@
       <c r="F77">
         <v>170</v>
       </c>
-      <c r="H77">
+      <c r="G77">
+        <v>170</v>
+      </c>
+      <c r="J77">
         <v>8</v>
       </c>
-      <c r="I77">
-        <f t="shared" si="3"/>
-        <v>0.90441176470588236</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="4"/>
-        <v>1.25</v>
-      </c>
       <c r="K77">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D77/C77</f>
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <f>E77/C77</f>
+        <v>1.3821138211382114</v>
+      </c>
+      <c r="M77">
+        <f>F77/C77</f>
+        <v>1.3821138211382114</v>
+      </c>
+      <c r="N77">
+        <f>G77/C77</f>
+        <v>1.3821138211382114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>17</v>
       </c>
@@ -6064,23 +6613,30 @@
       <c r="F78">
         <v>269</v>
       </c>
-      <c r="H78">
+      <c r="G78">
+        <v>269</v>
+      </c>
+      <c r="J78">
         <v>8</v>
       </c>
-      <c r="I78">
-        <f t="shared" si="3"/>
+      <c r="K78">
+        <f>D78/C78</f>
         <v>1.1382488479262673</v>
       </c>
-      <c r="J78">
-        <f t="shared" si="4"/>
+      <c r="L78">
+        <f>E78/C78</f>
         <v>1.23963133640553</v>
       </c>
-      <c r="K78">
-        <f t="shared" si="5"/>
+      <c r="M78">
+        <f>F78/C78</f>
         <v>1.23963133640553</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N78">
+        <f>G78/C78</f>
+        <v>1.23963133640553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>18</v>
       </c>
@@ -6099,23 +6655,30 @@
       <c r="F79">
         <v>136</v>
       </c>
-      <c r="H79">
+      <c r="G79">
+        <v>136</v>
+      </c>
+      <c r="J79">
         <v>8</v>
       </c>
-      <c r="I79">
-        <f t="shared" si="3"/>
+      <c r="K79">
+        <f>D79/C79</f>
         <v>1.2426470588235294</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="4"/>
+      <c r="L79">
+        <f>E79/C79</f>
         <v>1</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="5"/>
+      <c r="M79">
+        <f>F79/C79</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N79">
+        <f>G79/C79</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>19</v>
       </c>
@@ -6134,23 +6697,30 @@
       <c r="F80">
         <v>99</v>
       </c>
-      <c r="H80">
+      <c r="G80">
+        <v>99</v>
+      </c>
+      <c r="J80">
         <v>8</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="3"/>
+      <c r="K80">
+        <f>D80/C80</f>
         <v>1.292929292929293</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="4"/>
+      <c r="L80">
+        <f>E80/C80</f>
         <v>1</v>
       </c>
-      <c r="K80">
-        <f t="shared" si="5"/>
+      <c r="M80">
+        <f>F80/C80</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N80">
+        <f>G80/C80</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>20</v>
       </c>
@@ -6158,7 +6728,7 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D81">
         <v>174</v>
@@ -6169,23 +6739,30 @@
       <c r="F81">
         <v>167</v>
       </c>
-      <c r="H81">
+      <c r="G81">
+        <v>167</v>
+      </c>
+      <c r="J81">
         <v>8</v>
       </c>
-      <c r="I81">
-        <f t="shared" si="3"/>
-        <v>1.0419161676646707</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="K81">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D81/C81</f>
+        <v>1.1836734693877551</v>
+      </c>
+      <c r="L81">
+        <f>E81/C81</f>
+        <v>1.1360544217687074</v>
+      </c>
+      <c r="M81">
+        <f>F81/C81</f>
+        <v>1.1360544217687074</v>
+      </c>
+      <c r="N81">
+        <f>G81/C81</f>
+        <v>1.1360544217687074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -6204,23 +6781,30 @@
       <c r="F82">
         <v>270</v>
       </c>
-      <c r="H82">
+      <c r="G82">
+        <v>270</v>
+      </c>
+      <c r="J82">
         <v>9</v>
       </c>
-      <c r="I82">
-        <f t="shared" si="3"/>
+      <c r="K82">
+        <f>D82/C82</f>
         <v>1.5707762557077625</v>
       </c>
-      <c r="J82">
-        <f t="shared" si="4"/>
+      <c r="L82">
+        <f>E82/C82</f>
         <v>1.1050228310502284</v>
       </c>
-      <c r="K82">
-        <f t="shared" si="5"/>
+      <c r="M82">
+        <f>F82/C82</f>
         <v>1.2328767123287672</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N82">
+        <f>G82/C82</f>
+        <v>1.2328767123287672</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2</v>
       </c>
@@ -6228,7 +6812,7 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D83">
         <v>304</v>
@@ -6239,23 +6823,30 @@
       <c r="F83">
         <v>250</v>
       </c>
-      <c r="H83">
+      <c r="G83">
+        <v>250</v>
+      </c>
+      <c r="J83">
         <v>9</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="3"/>
-        <v>1.5751295336787565</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="4"/>
-        <v>1.2746113989637307</v>
-      </c>
       <c r="K83">
-        <f t="shared" si="5"/>
-        <v>1.2953367875647668</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D83/C83</f>
+        <v>1.8313253012048192</v>
+      </c>
+      <c r="L83">
+        <f>E83/C83</f>
+        <v>1.4819277108433735</v>
+      </c>
+      <c r="M83">
+        <f>F83/C83</f>
+        <v>1.5060240963855422</v>
+      </c>
+      <c r="N83">
+        <f>G83/C83</f>
+        <v>1.5060240963855422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6274,23 +6865,30 @@
       <c r="F84">
         <v>192</v>
       </c>
-      <c r="H84">
+      <c r="G84">
+        <v>192</v>
+      </c>
+      <c r="J84">
         <v>9</v>
       </c>
-      <c r="I84">
-        <f t="shared" si="3"/>
+      <c r="K84">
+        <f>D84/C84</f>
         <v>1.1764705882352942</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="4"/>
+      <c r="L84">
+        <f>E84/C84</f>
         <v>1.2549019607843137</v>
       </c>
-      <c r="K84">
-        <f t="shared" si="5"/>
+      <c r="M84">
+        <f>F84/C84</f>
         <v>1.2549019607843137</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N84">
+        <f>G84/C84</f>
+        <v>1.2549019607843137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6309,23 +6907,30 @@
       <c r="F85">
         <v>133</v>
       </c>
-      <c r="H85">
+      <c r="G85">
+        <v>267</v>
+      </c>
+      <c r="J85">
         <v>9</v>
       </c>
-      <c r="I85">
-        <f t="shared" si="3"/>
+      <c r="K85">
+        <f>D85/C85</f>
         <v>1.1832061068702291</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="4"/>
+      <c r="L85">
+        <f>E85/C85</f>
         <v>1.1832061068702291</v>
       </c>
-      <c r="K85">
-        <f t="shared" si="5"/>
+      <c r="M85">
+        <f>F85/C85</f>
         <v>1.0152671755725191</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N85">
+        <f>G85/C85</f>
+        <v>2.0381679389312977</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5</v>
       </c>
@@ -6344,23 +6949,30 @@
       <c r="F86">
         <v>310</v>
       </c>
-      <c r="H86">
+      <c r="G86">
+        <v>310</v>
+      </c>
+      <c r="J86">
         <v>9</v>
       </c>
-      <c r="I86">
-        <f t="shared" si="3"/>
+      <c r="K86">
+        <f>D86/C86</f>
         <v>1.4242424242424243</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="4"/>
+      <c r="L86">
+        <f>E86/C86</f>
         <v>1.1515151515151516</v>
       </c>
-      <c r="K86">
-        <f t="shared" si="5"/>
+      <c r="M86">
+        <f>F86/C86</f>
         <v>1.5656565656565657</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N86">
+        <f>G86/C86</f>
+        <v>1.5656565656565657</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>6</v>
       </c>
@@ -6368,7 +6980,7 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D87">
         <v>268</v>
@@ -6379,23 +6991,30 @@
       <c r="F87">
         <v>270</v>
       </c>
-      <c r="H87">
+      <c r="G87">
+        <v>270</v>
+      </c>
+      <c r="J87">
         <v>9</v>
       </c>
-      <c r="I87">
-        <f t="shared" si="3"/>
-        <v>1.558139534883721</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="4"/>
-        <v>1.2616279069767442</v>
-      </c>
       <c r="K87">
-        <f t="shared" si="5"/>
-        <v>1.569767441860465</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D87/C87</f>
+        <v>1.6962025316455696</v>
+      </c>
+      <c r="L87">
+        <f>E87/C87</f>
+        <v>1.3734177215189873</v>
+      </c>
+      <c r="M87">
+        <f>F87/C87</f>
+        <v>1.7088607594936709</v>
+      </c>
+      <c r="N87">
+        <f>G87/C87</f>
+        <v>1.7088607594936709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>7</v>
       </c>
@@ -6414,23 +7033,30 @@
       <c r="F88">
         <v>259</v>
       </c>
-      <c r="H88">
+      <c r="G88">
+        <v>259</v>
+      </c>
+      <c r="J88">
         <v>9</v>
       </c>
-      <c r="I88">
-        <f t="shared" si="3"/>
+      <c r="K88">
+        <f>D88/C88</f>
         <v>1</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="4"/>
+      <c r="L88">
+        <f>E88/C88</f>
         <v>1.2619047619047619</v>
       </c>
-      <c r="K88">
-        <f t="shared" si="5"/>
+      <c r="M88">
+        <f>F88/C88</f>
         <v>1.5416666666666667</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N88">
+        <f>G88/C88</f>
+        <v>1.5416666666666667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8</v>
       </c>
@@ -6438,7 +7064,7 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D89">
         <v>234</v>
@@ -6449,23 +7075,30 @@
       <c r="F89">
         <v>219</v>
       </c>
-      <c r="H89">
+      <c r="G89">
+        <v>219</v>
+      </c>
+      <c r="J89">
         <v>9</v>
       </c>
-      <c r="I89">
-        <f t="shared" si="3"/>
-        <v>1.2580645161290323</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="4"/>
-        <v>1.0698924731182795</v>
-      </c>
       <c r="K89">
-        <f t="shared" si="5"/>
-        <v>1.1774193548387097</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D89/C89</f>
+        <v>1.3295454545454546</v>
+      </c>
+      <c r="L89">
+        <f>E89/C89</f>
+        <v>1.1306818181818181</v>
+      </c>
+      <c r="M89">
+        <f>F89/C89</f>
+        <v>1.2443181818181819</v>
+      </c>
+      <c r="N89">
+        <f>G89/C89</f>
+        <v>1.2443181818181819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
@@ -6484,23 +7117,30 @@
       <c r="F90">
         <v>226</v>
       </c>
-      <c r="H90">
+      <c r="G90">
+        <v>269</v>
+      </c>
+      <c r="J90">
         <v>9</v>
       </c>
-      <c r="I90">
-        <f t="shared" si="3"/>
+      <c r="K90">
+        <f>D90/C90</f>
         <v>1.1092896174863387</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="4"/>
+      <c r="L90">
+        <f>E90/C90</f>
         <v>1.4863387978142077</v>
       </c>
-      <c r="K90">
-        <f t="shared" si="5"/>
+      <c r="M90">
+        <f>F90/C90</f>
         <v>1.2349726775956285</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N90">
+        <f>G90/C90</f>
+        <v>1.4699453551912569</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>10</v>
       </c>
@@ -6519,23 +7159,30 @@
       <c r="F91">
         <v>287</v>
       </c>
-      <c r="H91">
+      <c r="G91">
+        <v>287</v>
+      </c>
+      <c r="J91">
         <v>9</v>
       </c>
-      <c r="I91">
-        <f t="shared" si="3"/>
+      <c r="K91">
+        <f>D91/C91</f>
         <v>1.3714285714285714</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="4"/>
+      <c r="L91">
+        <f>E91/C91</f>
         <v>1.3523809523809525</v>
       </c>
-      <c r="K91">
-        <f t="shared" si="5"/>
+      <c r="M91">
+        <f>F91/C91</f>
         <v>1.3666666666666667</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N91">
+        <f>G91/C91</f>
+        <v>1.3666666666666667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>11</v>
       </c>
@@ -6554,23 +7201,30 @@
       <c r="F92">
         <v>247</v>
       </c>
-      <c r="H92">
+      <c r="G92">
+        <v>247</v>
+      </c>
+      <c r="J92">
         <v>9</v>
       </c>
-      <c r="I92">
-        <f t="shared" si="3"/>
+      <c r="K92">
+        <f>D92/C92</f>
         <v>1.4651162790697674</v>
       </c>
-      <c r="J92">
-        <f t="shared" si="4"/>
+      <c r="L92">
+        <f>E92/C92</f>
         <v>1.4360465116279071</v>
       </c>
-      <c r="K92">
-        <f t="shared" si="5"/>
+      <c r="M92">
+        <f>F92/C92</f>
         <v>1.4360465116279071</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N92">
+        <f>G92/C92</f>
+        <v>1.4360465116279071</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>12</v>
       </c>
@@ -6589,23 +7243,30 @@
       <c r="F93">
         <v>249</v>
       </c>
-      <c r="H93">
+      <c r="G93">
+        <v>249</v>
+      </c>
+      <c r="J93">
         <v>9</v>
       </c>
-      <c r="I93">
-        <f t="shared" si="3"/>
+      <c r="K93">
+        <f>D93/C93</f>
         <v>1.1296296296296295</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="4"/>
+      <c r="L93">
+        <f>E93/C93</f>
         <v>1.1296296296296295</v>
       </c>
-      <c r="K93">
-        <f t="shared" si="5"/>
+      <c r="M93">
+        <f>F93/C93</f>
         <v>1.537037037037037</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N93">
+        <f>G93/C93</f>
+        <v>1.537037037037037</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>13</v>
       </c>
@@ -6613,7 +7274,7 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D94">
         <v>240</v>
@@ -6624,23 +7285,30 @@
       <c r="F94">
         <v>318</v>
       </c>
-      <c r="H94">
+      <c r="G94">
+        <v>311</v>
+      </c>
+      <c r="J94">
         <v>9</v>
       </c>
-      <c r="I94">
-        <f t="shared" si="3"/>
-        <v>1.1881188118811881</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="4"/>
-        <v>1.2574257425742574</v>
-      </c>
       <c r="K94">
-        <f t="shared" si="5"/>
-        <v>1.5742574257425743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D94/C94</f>
+        <v>1.2</v>
+      </c>
+      <c r="L94">
+        <f>E94/C94</f>
+        <v>1.27</v>
+      </c>
+      <c r="M94">
+        <f>F94/C94</f>
+        <v>1.59</v>
+      </c>
+      <c r="N94">
+        <f>G94/C94</f>
+        <v>1.5549999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>14</v>
       </c>
@@ -6648,7 +7316,7 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D95">
         <v>241</v>
@@ -6659,23 +7327,30 @@
       <c r="F95">
         <v>235</v>
       </c>
-      <c r="H95">
+      <c r="G95">
+        <v>306</v>
+      </c>
+      <c r="J95">
         <v>9</v>
       </c>
-      <c r="I95">
-        <f t="shared" si="3"/>
-        <v>1.2233502538071066</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="4"/>
-        <v>1.2741116751269035</v>
-      </c>
       <c r="K95">
-        <f t="shared" si="5"/>
-        <v>1.1928934010152283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D95/C95</f>
+        <v>1.3097826086956521</v>
+      </c>
+      <c r="L95">
+        <f>E95/C95</f>
+        <v>1.3641304347826086</v>
+      </c>
+      <c r="M95">
+        <f>F95/C95</f>
+        <v>1.2771739130434783</v>
+      </c>
+      <c r="N95">
+        <f>G95/C95</f>
+        <v>1.6630434782608696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>15</v>
       </c>
@@ -6683,7 +7358,7 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D96">
         <v>273</v>
@@ -6694,23 +7369,30 @@
       <c r="F96">
         <v>276</v>
       </c>
-      <c r="H96">
+      <c r="G96">
+        <v>270</v>
+      </c>
+      <c r="J96">
         <v>9</v>
       </c>
-      <c r="I96">
-        <f t="shared" si="3"/>
-        <v>1.3582089552238805</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="4"/>
-        <v>1.4577114427860696</v>
-      </c>
       <c r="K96">
-        <f t="shared" si="5"/>
-        <v>1.3731343283582089</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D96/C96</f>
+        <v>1.3718592964824121</v>
+      </c>
+      <c r="L96">
+        <f>E96/C96</f>
+        <v>1.4723618090452262</v>
+      </c>
+      <c r="M96">
+        <f>F96/C96</f>
+        <v>1.3869346733668342</v>
+      </c>
+      <c r="N96">
+        <f>G96/C96</f>
+        <v>1.3567839195979901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>16</v>
       </c>
@@ -6718,7 +7400,7 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D97">
         <v>283</v>
@@ -6729,23 +7411,30 @@
       <c r="F97">
         <v>328</v>
       </c>
-      <c r="H97">
+      <c r="G97">
+        <v>328</v>
+      </c>
+      <c r="J97">
         <v>9</v>
       </c>
-      <c r="I97">
-        <f t="shared" si="3"/>
-        <v>1.304147465437788</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="4"/>
-        <v>1.0599078341013826</v>
-      </c>
       <c r="K97">
-        <f t="shared" si="5"/>
-        <v>1.5115207373271888</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D97/C97</f>
+        <v>1.3605769230769231</v>
+      </c>
+      <c r="L97">
+        <f>E97/C97</f>
+        <v>1.1057692307692308</v>
+      </c>
+      <c r="M97">
+        <f>F97/C97</f>
+        <v>1.5769230769230769</v>
+      </c>
+      <c r="N97">
+        <f>G97/C97</f>
+        <v>1.5769230769230769</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>17</v>
       </c>
@@ -6753,7 +7442,7 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D98">
         <v>235</v>
@@ -6764,23 +7453,30 @@
       <c r="F98">
         <v>341</v>
       </c>
-      <c r="H98">
+      <c r="G98">
+        <v>360</v>
+      </c>
+      <c r="J98">
         <v>9</v>
       </c>
-      <c r="I98">
-        <f t="shared" si="3"/>
-        <v>0.95918367346938771</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="4"/>
-        <v>1.416326530612245</v>
-      </c>
       <c r="K98">
-        <f t="shared" si="5"/>
-        <v>1.3918367346938776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D98/C98</f>
+        <v>1.0042735042735043</v>
+      </c>
+      <c r="L98">
+        <f>E98/C98</f>
+        <v>1.482905982905983</v>
+      </c>
+      <c r="M98">
+        <f>F98/C98</f>
+        <v>1.4572649572649572</v>
+      </c>
+      <c r="N98">
+        <f>G98/C98</f>
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>18</v>
       </c>
@@ -6788,7 +7484,7 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D99">
         <v>232</v>
@@ -6799,23 +7495,30 @@
       <c r="F99">
         <v>234</v>
       </c>
-      <c r="H99">
+      <c r="G99">
+        <v>252</v>
+      </c>
+      <c r="J99">
         <v>9</v>
       </c>
-      <c r="I99">
-        <f t="shared" si="3"/>
-        <v>1.2608695652173914</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="4"/>
-        <v>1.2608695652173914</v>
-      </c>
       <c r="K99">
-        <f t="shared" si="5"/>
-        <v>1.2717391304347827</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <f>D99/C99</f>
+        <v>1.5064935064935066</v>
+      </c>
+      <c r="L99">
+        <f>E99/C99</f>
+        <v>1.5064935064935066</v>
+      </c>
+      <c r="M99">
+        <f>F99/C99</f>
+        <v>1.5194805194805194</v>
+      </c>
+      <c r="N99">
+        <f>G99/C99</f>
+        <v>1.6363636363636365</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>19</v>
       </c>
@@ -6834,23 +7537,30 @@
       <c r="F100">
         <v>262</v>
       </c>
-      <c r="H100">
+      <c r="G100">
+        <v>262</v>
+      </c>
+      <c r="J100">
         <v>9</v>
       </c>
-      <c r="I100">
-        <f t="shared" si="3"/>
+      <c r="K100">
+        <f>D100/C100</f>
         <v>1.6424581005586592</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="4"/>
+      <c r="L100">
+        <f>E100/C100</f>
         <v>1.1229050279329609</v>
       </c>
-      <c r="K100">
-        <f t="shared" si="5"/>
+      <c r="M100">
+        <f>F100/C100</f>
         <v>1.4636871508379887</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N100">
+        <f>G100/C100</f>
+        <v>1.4636871508379887</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>20</v>
       </c>
@@ -6858,7 +7568,7 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D101">
         <v>402</v>
@@ -6869,20 +7579,27 @@
       <c r="F101">
         <v>297</v>
       </c>
-      <c r="H101">
+      <c r="G101">
+        <v>297</v>
+      </c>
+      <c r="J101">
         <v>9</v>
       </c>
-      <c r="I101">
-        <f t="shared" si="3"/>
-        <v>1.9326923076923077</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="4"/>
-        <v>1.5144230769230769</v>
-      </c>
       <c r="K101">
-        <f t="shared" si="5"/>
-        <v>1.4278846153846154</v>
+        <f>D101/C101</f>
+        <v>1.9900990099009901</v>
+      </c>
+      <c r="L101">
+        <f>E101/C101</f>
+        <v>1.5594059405940595</v>
+      </c>
+      <c r="M101">
+        <f>F101/C101</f>
+        <v>1.4702970297029703</v>
+      </c>
+      <c r="N101">
+        <f>G101/C101</f>
+        <v>1.4702970297029703</v>
       </c>
     </row>
   </sheetData>

--- a/Ergebnisse-normal.xlsx
+++ b/Ergebnisse-normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DAE76-A40E-467E-AA27-6E8F1D790A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9CD838-9319-45A2-8B79-5EAE750D4912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Experiment</t>
   </si>
@@ -60,17 +60,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,9 +89,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -171,7 +163,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$K$1</c:f>
+              <c:f>Ergebnisse!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -205,7 +197,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$J$2:$J$101</c:f>
+              <c:f>Ergebnisse!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -514,7 +506,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$K$2:$K$101</c:f>
+              <c:f>Ergebnisse!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -824,7 +816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDC3-4763-BADF-DE750833FC0F}"/>
+              <c16:uniqueId val="{00000000-F37F-48C9-8727-1BFB1BAB4794}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -833,7 +825,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$L$1</c:f>
+              <c:f>Ergebnisse!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -867,7 +859,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$J$2:$J$101</c:f>
+              <c:f>Ergebnisse!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1176,7 +1168,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$L$2:$L$101</c:f>
+              <c:f>Ergebnisse!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1486,7 +1478,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FDC3-4763-BADF-DE750833FC0F}"/>
+              <c16:uniqueId val="{00000001-F37F-48C9-8727-1BFB1BAB4794}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1495,7 +1487,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$M$1</c:f>
+              <c:f>Ergebnisse!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1529,7 +1521,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$J$2:$J$101</c:f>
+              <c:f>Ergebnisse!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1838,7 +1830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$M$2:$M$101</c:f>
+              <c:f>Ergebnisse!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2148,7 +2140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FDC3-4763-BADF-DE750833FC0F}"/>
+              <c16:uniqueId val="{00000002-F37F-48C9-8727-1BFB1BAB4794}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2160,11 +2152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="641914304"/>
-        <c:axId val="641915008"/>
+        <c:axId val="578227936"/>
+        <c:axId val="578226880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="641914304"/>
+        <c:axId val="578227936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,12 +2214,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641915008"/>
+        <c:crossAx val="578226880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="641915008"/>
+        <c:axId val="578226880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2277,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641914304"/>
+        <c:crossAx val="578227936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3003,22 +2995,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624A7A92-B89E-492F-D236-69DC61F275BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6AE126-46D1-F8ED-9C2B-979F11463B0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,15 +3348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="L1" activeCellId="3" sqref="I1:I1048576 J1:J1048576 K1:K1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3386,23 +3378,20 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3424,27 +3413,23 @@
       <c r="G2">
         <v>353</v>
       </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
       <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
         <f>D2/C2</f>
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="K2">
         <f>E2/C2</f>
         <v>1.6391752577319587</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <f>F2/C2</f>
         <v>1.6391752577319587</v>
       </c>
-      <c r="N2">
-        <f>G2/C2</f>
-        <v>1.8195876288659794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3466,27 +3451,23 @@
       <c r="G3">
         <v>231</v>
       </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
       <c r="J3">
-        <v>5</v>
+        <f t="shared" ref="J3:J66" si="0">D3/C3</f>
+        <v>1.4375</v>
       </c>
       <c r="K3">
-        <f>D3/C3</f>
-        <v>1.4375</v>
+        <f t="shared" ref="K3:K66" si="1">E3/C3</f>
+        <v>1.2307692307692308</v>
       </c>
       <c r="L3">
-        <f>E3/C3</f>
-        <v>1.2307692307692308</v>
-      </c>
-      <c r="M3">
-        <f>F3/C3</f>
+        <f t="shared" ref="L3:L66" si="2">F3/C3</f>
         <v>1.1105769230769231</v>
       </c>
-      <c r="N3">
-        <f>G3/C3</f>
-        <v>1.1105769230769231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3508,27 +3489,23 @@
       <c r="G4">
         <v>163</v>
       </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
       <c r="J4">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K4">
-        <f>D4/C4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L4">
-        <f>E4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <f>F4/C4</f>
+        <f t="shared" si="2"/>
         <v>1.1398601398601398</v>
       </c>
-      <c r="N4">
-        <f>G4/C4</f>
-        <v>1.1398601398601398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3550,27 +3527,23 @@
       <c r="G5">
         <v>201</v>
       </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
       <c r="J5">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K5">
-        <f>D5/C5</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.2721518987341771</v>
       </c>
       <c r="L5">
-        <f>E5/C5</f>
+        <f t="shared" si="2"/>
         <v>1.2721518987341771</v>
       </c>
-      <c r="M5">
-        <f>F5/C5</f>
-        <v>1.2721518987341771</v>
-      </c>
-      <c r="N5">
-        <f>G5/C5</f>
-        <v>1.2721518987341771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3592,27 +3565,23 @@
       <c r="G6">
         <v>204</v>
       </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
       <c r="J6">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K6">
-        <f>D6/C6</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2.193548387096774</v>
       </c>
       <c r="L6">
-        <f>E6/C6</f>
+        <f t="shared" si="2"/>
         <v>2.193548387096774</v>
       </c>
-      <c r="M6">
-        <f>F6/C6</f>
-        <v>2.193548387096774</v>
-      </c>
-      <c r="N6">
-        <f>G6/C6</f>
-        <v>2.193548387096774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3634,27 +3603,23 @@
       <c r="G7">
         <v>146</v>
       </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
       <c r="J7">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K7">
-        <f>D7/C7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L7">
-        <f>E7/C7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M7">
-        <f>F7/C7</f>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f>G7/C7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3676,27 +3641,23 @@
       <c r="G8">
         <v>344</v>
       </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
       <c r="J8">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K8">
-        <f>D8/C8</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.5029239766081872</v>
       </c>
       <c r="L8">
-        <f>E8/C8</f>
+        <f t="shared" si="2"/>
         <v>1.5029239766081872</v>
       </c>
-      <c r="M8">
-        <f>F8/C8</f>
-        <v>1.5029239766081872</v>
-      </c>
-      <c r="N8">
-        <f>G8/C8</f>
-        <v>2.0116959064327484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3718,27 +3679,23 @@
       <c r="G9">
         <v>216</v>
       </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
       <c r="J9">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.0046511627906978</v>
       </c>
       <c r="K9">
-        <f>D9/C9</f>
+        <f t="shared" si="1"/>
         <v>1.0046511627906978</v>
       </c>
       <c r="L9">
-        <f>E9/C9</f>
+        <f t="shared" si="2"/>
         <v>1.0046511627906978</v>
       </c>
-      <c r="M9">
-        <f>F9/C9</f>
-        <v>1.0046511627906978</v>
-      </c>
-      <c r="N9">
-        <f>G9/C9</f>
-        <v>1.0046511627906978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3760,27 +3717,23 @@
       <c r="G10">
         <v>262</v>
       </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
       <c r="J10">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
       </c>
       <c r="K10">
-        <f>D10/C10</f>
+        <f t="shared" si="1"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="L10">
-        <f>E10/C10</f>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="M10">
-        <f>F10/C10</f>
+        <f t="shared" si="2"/>
         <v>1.1196581196581197</v>
       </c>
-      <c r="N10">
-        <f>G10/C10</f>
-        <v>1.1196581196581197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3802,27 +3755,23 @@
       <c r="G11">
         <v>175</v>
       </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
       <c r="J11">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.1290322580645162</v>
       </c>
       <c r="K11">
-        <f>D11/C11</f>
+        <f t="shared" si="1"/>
         <v>1.1290322580645162</v>
       </c>
       <c r="L11">
-        <f>E11/C11</f>
+        <f t="shared" si="2"/>
         <v>1.1290322580645162</v>
       </c>
-      <c r="M11">
-        <f>F11/C11</f>
-        <v>1.1290322580645162</v>
-      </c>
-      <c r="N11">
-        <f>G11/C11</f>
-        <v>1.1290322580645162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3844,27 +3793,23 @@
       <c r="G12">
         <v>329</v>
       </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
       <c r="J12">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K12">
-        <f>D12/C12</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.3351955307262571</v>
       </c>
       <c r="L12">
-        <f>E12/C12</f>
+        <f t="shared" si="2"/>
         <v>1.3351955307262571</v>
       </c>
-      <c r="M12">
-        <f>F12/C12</f>
-        <v>1.3351955307262571</v>
-      </c>
-      <c r="N12">
-        <f>G12/C12</f>
-        <v>1.8379888268156424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3886,27 +3831,23 @@
       <c r="G13">
         <v>235</v>
       </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
       <c r="J13">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.0755555555555556</v>
       </c>
       <c r="K13">
-        <f>D13/C13</f>
+        <f t="shared" si="1"/>
         <v>1.0755555555555556</v>
       </c>
       <c r="L13">
-        <f>E13/C13</f>
-        <v>1.0755555555555556</v>
-      </c>
-      <c r="M13">
-        <f>F13/C13</f>
+        <f t="shared" si="2"/>
         <v>1.0444444444444445</v>
       </c>
-      <c r="N13">
-        <f>G13/C13</f>
-        <v>1.0444444444444445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3928,27 +3869,23 @@
       <c r="G14">
         <v>165</v>
       </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
       <c r="J14">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.3658536585365855</v>
       </c>
       <c r="K14">
-        <f>D14/C14</f>
-        <v>1.3658536585365855</v>
+        <f t="shared" si="1"/>
+        <v>1.2601626016260163</v>
       </c>
       <c r="L14">
-        <f>E14/C14</f>
-        <v>1.2601626016260163</v>
-      </c>
-      <c r="M14">
-        <f>F14/C14</f>
+        <f t="shared" si="2"/>
         <v>1.3414634146341464</v>
       </c>
-      <c r="N14">
-        <f>G14/C14</f>
-        <v>1.3414634146341464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3970,27 +3907,23 @@
       <c r="G15">
         <v>183</v>
       </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
       <c r="J15">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.2922077922077921</v>
       </c>
       <c r="K15">
-        <f>D15/C15</f>
-        <v>1.2922077922077921</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L15">
-        <f>E15/C15</f>
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f>F15/C15</f>
+        <f t="shared" si="2"/>
         <v>1.1883116883116882</v>
       </c>
-      <c r="N15">
-        <f>G15/C15</f>
-        <v>1.1883116883116882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4012,27 +3945,23 @@
       <c r="G16">
         <v>149</v>
       </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
       <c r="J16">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K16">
-        <f>D16/C16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L16">
-        <f>E16/C16</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M16">
-        <f>F16/C16</f>
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <f>G16/C16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4054,27 +3983,23 @@
       <c r="G17">
         <v>160</v>
       </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
       <c r="J17">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.5384615384615385</v>
       </c>
       <c r="K17">
-        <f>D17/C17</f>
+        <f t="shared" si="1"/>
+        <v>1.2403846153846154</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="L17">
-        <f>E17/C17</f>
-        <v>1.2403846153846154</v>
-      </c>
-      <c r="M17">
-        <f>F17/C17</f>
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="N17">
-        <f>G17/C17</f>
-        <v>1.5384615384615385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4096,27 +4021,23 @@
       <c r="G18">
         <v>332</v>
       </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
       <c r="J18">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K18">
-        <f>D18/C18</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.296875</v>
       </c>
       <c r="L18">
-        <f>E18/C18</f>
+        <f t="shared" si="2"/>
         <v>1.296875</v>
       </c>
-      <c r="M18">
-        <f>F18/C18</f>
-        <v>1.296875</v>
-      </c>
-      <c r="N18">
-        <f>G18/C18</f>
-        <v>1.296875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4138,27 +4059,23 @@
       <c r="G19">
         <v>133</v>
       </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
       <c r="J19">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K19">
-        <f>D19/C19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L19">
-        <f>E19/C19</f>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f>F19/C19</f>
+        <f t="shared" si="2"/>
         <v>1.2788461538461537</v>
       </c>
-      <c r="N19">
-        <f>G19/C19</f>
-        <v>1.2788461538461537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4180,27 +4097,23 @@
       <c r="G20">
         <v>234</v>
       </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
       <c r="J20">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.3655913978494623</v>
       </c>
       <c r="K20">
-        <f>D20/C20</f>
-        <v>1.3655913978494623</v>
+        <f t="shared" si="1"/>
+        <v>1.2580645161290323</v>
       </c>
       <c r="L20">
-        <f>E20/C20</f>
+        <f t="shared" si="2"/>
         <v>1.2580645161290323</v>
       </c>
-      <c r="M20">
-        <f>F20/C20</f>
-        <v>1.2580645161290323</v>
-      </c>
-      <c r="N20">
-        <f>G20/C20</f>
-        <v>1.2580645161290323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4222,27 +4135,23 @@
       <c r="G21">
         <v>299</v>
       </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
       <c r="J21">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.036734693877551</v>
       </c>
       <c r="K21">
-        <f>D21/C21</f>
+        <f t="shared" si="1"/>
         <v>1.036734693877551</v>
       </c>
       <c r="L21">
-        <f>E21/C21</f>
-        <v>1.036734693877551</v>
-      </c>
-      <c r="M21">
-        <f>F21/C21</f>
+        <f t="shared" si="2"/>
         <v>1.2204081632653061</v>
       </c>
-      <c r="N21">
-        <f>G21/C21</f>
-        <v>1.2204081632653061</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4264,27 +4173,23 @@
       <c r="G22">
         <v>192</v>
       </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
       <c r="J22">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.5260416666666667</v>
       </c>
       <c r="K22">
-        <f>D22/C22</f>
-        <v>1.5260416666666667</v>
+        <f t="shared" si="1"/>
+        <v>1.4427083333333333</v>
       </c>
       <c r="L22">
-        <f>E22/C22</f>
+        <f t="shared" si="2"/>
         <v>1.4427083333333333</v>
       </c>
-      <c r="M22">
-        <f>F22/C22</f>
-        <v>1.4427083333333333</v>
-      </c>
-      <c r="N22">
-        <f>G22/C22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4306,27 +4211,23 @@
       <c r="G23">
         <v>192</v>
       </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
       <c r="J23">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.29375</v>
       </c>
       <c r="K23">
-        <f>D23/C23</f>
+        <f t="shared" si="1"/>
         <v>1.29375</v>
       </c>
       <c r="L23">
-        <f>E23/C23</f>
-        <v>1.29375</v>
-      </c>
-      <c r="M23">
-        <f>F23/C23</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="N23">
-        <f>G23/C23</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4348,27 +4249,23 @@
       <c r="G24">
         <v>298</v>
       </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
       <c r="J24">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K24">
-        <f>D24/C24</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.3013100436681222</v>
       </c>
       <c r="L24">
-        <f>E24/C24</f>
+        <f t="shared" si="2"/>
         <v>1.3013100436681222</v>
       </c>
-      <c r="M24">
-        <f>F24/C24</f>
-        <v>1.3013100436681222</v>
-      </c>
-      <c r="N24">
-        <f>G24/C24</f>
-        <v>1.3013100436681222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4390,27 +4287,23 @@
       <c r="G25">
         <v>207</v>
       </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
       <c r="J25">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.2268041237113403</v>
       </c>
       <c r="K25">
-        <f>D25/C25</f>
-        <v>1.2268041237113403</v>
+        <f t="shared" si="1"/>
+        <v>1.0670103092783505</v>
       </c>
       <c r="L25">
-        <f>E25/C25</f>
+        <f t="shared" si="2"/>
         <v>1.0670103092783505</v>
       </c>
-      <c r="M25">
-        <f>F25/C25</f>
-        <v>1.0670103092783505</v>
-      </c>
-      <c r="N25">
-        <f>G25/C25</f>
-        <v>1.0670103092783505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4432,27 +4325,23 @@
       <c r="G26">
         <v>260</v>
       </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
       <c r="J26">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.0612244897959184</v>
       </c>
       <c r="K26">
-        <f>D26/C26</f>
+        <f t="shared" si="1"/>
         <v>1.0612244897959184</v>
       </c>
       <c r="L26">
-        <f>E26/C26</f>
+        <f t="shared" si="2"/>
         <v>1.0612244897959184</v>
       </c>
-      <c r="M26">
-        <f>F26/C26</f>
-        <v>1.0612244897959184</v>
-      </c>
-      <c r="N26">
-        <f>G26/C26</f>
-        <v>1.0612244897959184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
@@ -4474,27 +4363,23 @@
       <c r="G27">
         <v>266</v>
       </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
       <c r="J27">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K27">
-        <f>D27/C27</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.5113636363636365</v>
       </c>
       <c r="L27">
-        <f>E27/C27</f>
+        <f t="shared" si="2"/>
         <v>1.5113636363636365</v>
       </c>
-      <c r="M27">
-        <f>F27/C27</f>
-        <v>1.5113636363636365</v>
-      </c>
-      <c r="N27">
-        <f>G27/C27</f>
-        <v>1.5113636363636365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
@@ -4516,27 +4401,23 @@
       <c r="G28">
         <v>175</v>
       </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
       <c r="J28">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.0174418604651163</v>
       </c>
       <c r="K28">
-        <f>D28/C28</f>
+        <f t="shared" si="1"/>
         <v>1.0174418604651163</v>
       </c>
       <c r="L28">
-        <f>E28/C28</f>
+        <f t="shared" si="2"/>
         <v>1.0174418604651163</v>
       </c>
-      <c r="M28">
-        <f>F28/C28</f>
-        <v>1.0174418604651163</v>
-      </c>
-      <c r="N28">
-        <f>G28/C28</f>
-        <v>1.0174418604651163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4558,27 +4439,23 @@
       <c r="G29">
         <v>227</v>
       </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
       <c r="J29">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.0837004405286343</v>
       </c>
       <c r="K29">
-        <f>D29/C29</f>
-        <v>1.0837004405286343</v>
+        <f t="shared" si="1"/>
+        <v>1.2687224669603525</v>
       </c>
       <c r="L29">
-        <f>E29/C29</f>
+        <f t="shared" si="2"/>
         <v>1.2687224669603525</v>
       </c>
-      <c r="M29">
-        <f>F29/C29</f>
-        <v>1.2687224669603525</v>
-      </c>
-      <c r="N29">
-        <f>G29/C29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4600,27 +4477,23 @@
       <c r="G30">
         <v>181</v>
       </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
       <c r="J30">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.3524590163934427</v>
       </c>
       <c r="K30">
-        <f>D30/C30</f>
-        <v>1.3524590163934427</v>
+        <f t="shared" si="1"/>
+        <v>1.4836065573770492</v>
       </c>
       <c r="L30">
-        <f>E30/C30</f>
+        <f t="shared" si="2"/>
         <v>1.4836065573770492</v>
       </c>
-      <c r="M30">
-        <f>F30/C30</f>
-        <v>1.4836065573770492</v>
-      </c>
-      <c r="N30">
-        <f>G30/C30</f>
-        <v>1.4836065573770492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -4642,27 +4515,23 @@
       <c r="G31">
         <v>227</v>
       </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
       <c r="J31">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.1886792452830188</v>
       </c>
       <c r="K31">
-        <f>D31/C31</f>
-        <v>1.1886792452830188</v>
+        <f t="shared" si="1"/>
+        <v>2.141509433962264</v>
       </c>
       <c r="L31">
-        <f>E31/C31</f>
+        <f t="shared" si="2"/>
         <v>2.141509433962264</v>
       </c>
-      <c r="M31">
-        <f>F31/C31</f>
-        <v>2.141509433962264</v>
-      </c>
-      <c r="N31">
-        <f>G31/C31</f>
-        <v>2.141509433962264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>11</v>
       </c>
@@ -4684,27 +4553,23 @@
       <c r="G32">
         <v>251</v>
       </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
       <c r="J32">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.270935960591133</v>
       </c>
       <c r="K32">
-        <f>D32/C32</f>
-        <v>1.270935960591133</v>
+        <f t="shared" si="1"/>
+        <v>1.3251231527093597</v>
       </c>
       <c r="L32">
-        <f>E32/C32</f>
-        <v>1.3251231527093597</v>
-      </c>
-      <c r="M32">
-        <f>F32/C32</f>
+        <f t="shared" si="2"/>
         <v>1.2364532019704433</v>
       </c>
-      <c r="N32">
-        <f>G32/C32</f>
-        <v>1.2364532019704433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>12</v>
       </c>
@@ -4726,27 +4591,23 @@
       <c r="G33">
         <v>297</v>
       </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
       <c r="J33">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.0470085470085471</v>
       </c>
       <c r="K33">
-        <f>D33/C33</f>
-        <v>1.0470085470085471</v>
+        <f t="shared" si="1"/>
+        <v>1.2692307692307692</v>
       </c>
       <c r="L33">
-        <f>E33/C33</f>
+        <f t="shared" si="2"/>
         <v>1.2692307692307692</v>
       </c>
-      <c r="M33">
-        <f>F33/C33</f>
-        <v>1.2692307692307692</v>
-      </c>
-      <c r="N33">
-        <f>G33/C33</f>
-        <v>1.2692307692307692</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>13</v>
       </c>
@@ -4768,27 +4629,23 @@
       <c r="G34">
         <v>169</v>
       </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
       <c r="J34">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.111842105263158</v>
       </c>
       <c r="K34">
-        <f>D34/C34</f>
-        <v>1.111842105263158</v>
+        <f t="shared" si="1"/>
+        <v>1.4276315789473684</v>
       </c>
       <c r="L34">
-        <f>E34/C34</f>
+        <f t="shared" si="2"/>
         <v>1.4276315789473684</v>
       </c>
-      <c r="M34">
-        <f>F34/C34</f>
-        <v>1.4276315789473684</v>
-      </c>
-      <c r="N34">
-        <f>G34/C34</f>
-        <v>1.111842105263158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>14</v>
       </c>
@@ -4810,27 +4667,23 @@
       <c r="G35">
         <v>209</v>
       </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
       <c r="J35">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.203125</v>
       </c>
       <c r="K35">
-        <f>D35/C35</f>
-        <v>1.203125</v>
+        <f t="shared" si="1"/>
+        <v>1.6328125</v>
       </c>
       <c r="L35">
-        <f>E35/C35</f>
+        <f t="shared" si="2"/>
         <v>1.6328125</v>
       </c>
-      <c r="M35">
-        <f>F35/C35</f>
-        <v>1.6328125</v>
-      </c>
-      <c r="N35">
-        <f>G35/C35</f>
-        <v>1.6328125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15</v>
       </c>
@@ -4852,27 +4705,23 @@
       <c r="G36">
         <v>234</v>
       </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
       <c r="J36">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.1152073732718895</v>
       </c>
       <c r="K36">
-        <f>D36/C36</f>
-        <v>1.1152073732718895</v>
+        <f t="shared" si="1"/>
+        <v>1.0783410138248848</v>
       </c>
       <c r="L36">
-        <f>E36/C36</f>
+        <f t="shared" si="2"/>
         <v>1.0783410138248848</v>
       </c>
-      <c r="M36">
-        <f>F36/C36</f>
-        <v>1.0783410138248848</v>
-      </c>
-      <c r="N36">
-        <f>G36/C36</f>
-        <v>1.0783410138248848</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4894,27 +4743,23 @@
       <c r="G37">
         <v>250</v>
       </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
       <c r="J37">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.2413793103448276</v>
       </c>
       <c r="K37">
-        <f>D37/C37</f>
-        <v>1.2413793103448276</v>
+        <f t="shared" si="1"/>
+        <v>1.7241379310344827</v>
       </c>
       <c r="L37">
-        <f>E37/C37</f>
+        <f t="shared" si="2"/>
         <v>1.7241379310344827</v>
       </c>
-      <c r="M37">
-        <f>F37/C37</f>
-        <v>1.7241379310344827</v>
-      </c>
-      <c r="N37">
-        <f>G37/C37</f>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>17</v>
       </c>
@@ -4936,27 +4781,23 @@
       <c r="G38">
         <v>265</v>
       </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
       <c r="J38">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K38">
-        <f>D38/C38</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.1990950226244343</v>
       </c>
       <c r="L38">
-        <f>E38/C38</f>
+        <f t="shared" si="2"/>
         <v>1.1990950226244343</v>
       </c>
-      <c r="M38">
-        <f>F38/C38</f>
-        <v>1.1990950226244343</v>
-      </c>
-      <c r="N38">
-        <f>G38/C38</f>
-        <v>1.1990950226244343</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>18</v>
       </c>
@@ -4978,27 +4819,23 @@
       <c r="G39">
         <v>198</v>
       </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
       <c r="J39">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.1546961325966851</v>
       </c>
       <c r="K39">
-        <f>D39/C39</f>
-        <v>1.1546961325966851</v>
+        <f t="shared" si="1"/>
+        <v>1.0939226519337018</v>
       </c>
       <c r="L39">
-        <f>E39/C39</f>
+        <f t="shared" si="2"/>
         <v>1.0939226519337018</v>
       </c>
-      <c r="M39">
-        <f>F39/C39</f>
-        <v>1.0939226519337018</v>
-      </c>
-      <c r="N39">
-        <f>G39/C39</f>
-        <v>1.0939226519337018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
@@ -5020,27 +4857,23 @@
       <c r="G40">
         <v>252</v>
       </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
       <c r="J40">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.0851063829787233</v>
       </c>
       <c r="K40">
-        <f>D40/C40</f>
-        <v>1.0851063829787233</v>
+        <f t="shared" si="1"/>
+        <v>1.7872340425531914</v>
       </c>
       <c r="L40">
-        <f>E40/C40</f>
+        <f t="shared" si="2"/>
         <v>1.7872340425531914</v>
       </c>
-      <c r="M40">
-        <f>F40/C40</f>
-        <v>1.7872340425531914</v>
-      </c>
-      <c r="N40">
-        <f>G40/C40</f>
-        <v>1.7872340425531914</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20</v>
       </c>
@@ -5062,27 +4895,23 @@
       <c r="G41">
         <v>248</v>
       </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
       <c r="J41">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K41">
-        <f>D41/C41</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.8507462686567164</v>
       </c>
       <c r="L41">
-        <f>E41/C41</f>
+        <f t="shared" si="2"/>
         <v>1.8507462686567164</v>
       </c>
-      <c r="M41">
-        <f>F41/C41</f>
-        <v>1.8507462686567164</v>
-      </c>
-      <c r="N41">
-        <f>G41/C41</f>
-        <v>1.8507462686567164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5104,27 +4933,23 @@
       <c r="G42">
         <v>162</v>
       </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
       <c r="J42">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.0984848484848484</v>
       </c>
       <c r="K42">
-        <f>D42/C42</f>
+        <f t="shared" si="1"/>
         <v>1.0984848484848484</v>
       </c>
       <c r="L42">
-        <f>E42/C42</f>
+        <f t="shared" si="2"/>
         <v>1.0984848484848484</v>
       </c>
-      <c r="M42">
-        <f>F42/C42</f>
-        <v>1.0984848484848484</v>
-      </c>
-      <c r="N42">
-        <f>G42/C42</f>
-        <v>1.2272727272727273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5146,27 +4971,23 @@
       <c r="G43">
         <v>224</v>
       </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
       <c r="J43">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.3015873015873016</v>
       </c>
       <c r="K43">
-        <f>D43/C43</f>
-        <v>1.3015873015873016</v>
+        <f t="shared" si="1"/>
+        <v>1.3280423280423281</v>
       </c>
       <c r="L43">
-        <f>E43/C43</f>
+        <f t="shared" si="2"/>
         <v>1.3280423280423281</v>
       </c>
-      <c r="M43">
-        <f>F43/C43</f>
-        <v>1.3280423280423281</v>
-      </c>
-      <c r="N43">
-        <f>G43/C43</f>
-        <v>1.1851851851851851</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3</v>
       </c>
@@ -5188,27 +5009,23 @@
       <c r="G44">
         <v>130</v>
       </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
       <c r="J44">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.1030927835051547</v>
       </c>
       <c r="K44">
-        <f>D44/C44</f>
-        <v>1.1030927835051547</v>
+        <f t="shared" si="1"/>
+        <v>1.3402061855670102</v>
       </c>
       <c r="L44">
-        <f>E44/C44</f>
+        <f t="shared" si="2"/>
         <v>1.3402061855670102</v>
       </c>
-      <c r="M44">
-        <f>F44/C44</f>
-        <v>1.3402061855670102</v>
-      </c>
-      <c r="N44">
-        <f>G44/C44</f>
-        <v>1.3402061855670102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5230,27 +5047,23 @@
       <c r="G45">
         <v>296</v>
       </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
       <c r="J45">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.3217821782178218</v>
       </c>
       <c r="K45">
-        <f>D45/C45</f>
-        <v>1.3217821782178218</v>
+        <f t="shared" si="1"/>
+        <v>1.4405940594059405</v>
       </c>
       <c r="L45">
-        <f>E45/C45</f>
-        <v>1.4405940594059405</v>
-      </c>
-      <c r="M45">
-        <f>F45/C45</f>
+        <f t="shared" si="2"/>
         <v>1.4653465346534653</v>
       </c>
-      <c r="N45">
-        <f>G45/C45</f>
-        <v>1.4653465346534653</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -5272,27 +5085,23 @@
       <c r="G46">
         <v>290</v>
       </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
       <c r="J46">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.17578125</v>
       </c>
       <c r="K46">
-        <f>D46/C46</f>
-        <v>1.17578125</v>
+        <f t="shared" si="1"/>
+        <v>1.1328125</v>
       </c>
       <c r="L46">
-        <f>E46/C46</f>
+        <f t="shared" si="2"/>
         <v>1.1328125</v>
       </c>
-      <c r="M46">
-        <f>F46/C46</f>
-        <v>1.1328125</v>
-      </c>
-      <c r="N46">
-        <f>G46/C46</f>
-        <v>1.1328125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
@@ -5314,27 +5123,23 @@
       <c r="G47">
         <v>313</v>
       </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
       <c r="J47">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.0234375</v>
       </c>
       <c r="K47">
-        <f>D47/C47</f>
-        <v>1.0234375</v>
+        <f t="shared" si="1"/>
+        <v>1.22265625</v>
       </c>
       <c r="L47">
-        <f>E47/C47</f>
-        <v>1.22265625</v>
-      </c>
-      <c r="M47">
-        <f>F47/C47</f>
+        <f t="shared" si="2"/>
         <v>1.3671875</v>
       </c>
-      <c r="N47">
-        <f>G47/C47</f>
-        <v>1.22265625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>7</v>
       </c>
@@ -5356,27 +5161,23 @@
       <c r="G48">
         <v>166</v>
       </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
       <c r="J48">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.225609756097561</v>
       </c>
       <c r="K48">
-        <f>D48/C48</f>
-        <v>1.225609756097561</v>
+        <f t="shared" si="1"/>
+        <v>1.0853658536585367</v>
       </c>
       <c r="L48">
-        <f>E48/C48</f>
+        <f t="shared" si="2"/>
         <v>1.0853658536585367</v>
       </c>
-      <c r="M48">
-        <f>F48/C48</f>
-        <v>1.0853658536585367</v>
-      </c>
-      <c r="N48">
-        <f>G48/C48</f>
-        <v>1.0121951219512195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8</v>
       </c>
@@ -5398,27 +5199,23 @@
       <c r="G49">
         <v>160</v>
       </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
       <c r="J49">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K49">
-        <f>D49/C49</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.1940298507462686</v>
       </c>
       <c r="L49">
-        <f>E49/C49</f>
+        <f t="shared" si="2"/>
         <v>1.1940298507462686</v>
       </c>
-      <c r="M49">
-        <f>F49/C49</f>
-        <v>1.1940298507462686</v>
-      </c>
-      <c r="N49">
-        <f>G49/C49</f>
-        <v>1.1940298507462686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>9</v>
       </c>
@@ -5440,27 +5237,23 @@
       <c r="G50">
         <v>181</v>
       </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
       <c r="J50">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K50">
-        <f>D50/C50</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.5210084033613445</v>
       </c>
       <c r="L50">
-        <f>E50/C50</f>
+        <f t="shared" si="2"/>
         <v>1.5210084033613445</v>
       </c>
-      <c r="M50">
-        <f>F50/C50</f>
-        <v>1.5210084033613445</v>
-      </c>
-      <c r="N50">
-        <f>G50/C50</f>
-        <v>1.5210084033613445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>10</v>
       </c>
@@ -5482,27 +5275,23 @@
       <c r="G51">
         <v>140</v>
       </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
       <c r="J51">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.296875</v>
       </c>
       <c r="K51">
-        <f>D51/C51</f>
-        <v>1.296875</v>
+        <f t="shared" si="1"/>
+        <v>1.09375</v>
       </c>
       <c r="L51">
-        <f>E51/C51</f>
+        <f t="shared" si="2"/>
         <v>1.09375</v>
       </c>
-      <c r="M51">
-        <f>F51/C51</f>
-        <v>1.09375</v>
-      </c>
-      <c r="N51">
-        <f>G51/C51</f>
-        <v>1.09375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>11</v>
       </c>
@@ -5524,27 +5313,23 @@
       <c r="G52">
         <v>306</v>
       </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
       <c r="J52">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.1730769230769231</v>
       </c>
       <c r="K52">
-        <f>D52/C52</f>
-        <v>1.1730769230769231</v>
+        <f t="shared" si="1"/>
+        <v>1.3413461538461537</v>
       </c>
       <c r="L52">
-        <f>E52/C52</f>
+        <f t="shared" si="2"/>
         <v>1.3413461538461537</v>
       </c>
-      <c r="M52">
-        <f>F52/C52</f>
-        <v>1.3413461538461537</v>
-      </c>
-      <c r="N52">
-        <f>G52/C52</f>
-        <v>1.4711538461538463</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>12</v>
       </c>
@@ -5566,27 +5351,23 @@
       <c r="G53">
         <v>255</v>
       </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
       <c r="J53">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.4239999999999999</v>
       </c>
       <c r="K53">
-        <f>D53/C53</f>
-        <v>1.4239999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.256</v>
       </c>
       <c r="L53">
-        <f>E53/C53</f>
+        <f t="shared" si="2"/>
         <v>1.256</v>
       </c>
-      <c r="M53">
-        <f>F53/C53</f>
-        <v>1.256</v>
-      </c>
-      <c r="N53">
-        <f>G53/C53</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>13</v>
       </c>
@@ -5608,27 +5389,23 @@
       <c r="G54">
         <v>161</v>
       </c>
+      <c r="I54">
+        <v>7</v>
+      </c>
       <c r="J54">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.1258741258741258</v>
       </c>
       <c r="K54">
-        <f>D54/C54</f>
+        <f t="shared" si="1"/>
         <v>1.1258741258741258</v>
       </c>
       <c r="L54">
-        <f>E54/C54</f>
+        <f t="shared" si="2"/>
         <v>1.1258741258741258</v>
       </c>
-      <c r="M54">
-        <f>F54/C54</f>
-        <v>1.1258741258741258</v>
-      </c>
-      <c r="N54">
-        <f>G54/C54</f>
-        <v>1.1258741258741258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>14</v>
       </c>
@@ -5650,27 +5427,23 @@
       <c r="G55">
         <v>176</v>
       </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
       <c r="J55">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.4093959731543624</v>
       </c>
       <c r="K55">
-        <f>D55/C55</f>
-        <v>1.4093959731543624</v>
+        <f t="shared" si="1"/>
+        <v>1.1812080536912752</v>
       </c>
       <c r="L55">
-        <f>E55/C55</f>
+        <f t="shared" si="2"/>
         <v>1.1812080536912752</v>
       </c>
-      <c r="M55">
-        <f>F55/C55</f>
-        <v>1.1812080536912752</v>
-      </c>
-      <c r="N55">
-        <f>G55/C55</f>
-        <v>1.1812080536912752</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>15</v>
       </c>
@@ -5692,27 +5465,23 @@
       <c r="G56">
         <v>227</v>
       </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
       <c r="J56">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.1597222222222223</v>
       </c>
       <c r="K56">
-        <f>D56/C56</f>
-        <v>1.1597222222222223</v>
+        <f t="shared" si="1"/>
+        <v>1.125</v>
       </c>
       <c r="L56">
-        <f>E56/C56</f>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
-      <c r="M56">
-        <f>F56/C56</f>
-        <v>1.125</v>
-      </c>
-      <c r="N56">
-        <f>G56/C56</f>
-        <v>1.5763888888888888</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>16</v>
       </c>
@@ -5734,27 +5503,23 @@
       <c r="G57">
         <v>227</v>
       </c>
+      <c r="I57">
+        <v>7</v>
+      </c>
       <c r="J57">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.1776649746192893</v>
       </c>
       <c r="K57">
-        <f>D57/C57</f>
-        <v>1.1776649746192893</v>
+        <f t="shared" si="1"/>
+        <v>1.1522842639593909</v>
       </c>
       <c r="L57">
-        <f>E57/C57</f>
+        <f t="shared" si="2"/>
         <v>1.1522842639593909</v>
       </c>
-      <c r="M57">
-        <f>F57/C57</f>
-        <v>1.1522842639593909</v>
-      </c>
-      <c r="N57">
-        <f>G57/C57</f>
-        <v>1.1522842639593909</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>17</v>
       </c>
@@ -5776,27 +5541,23 @@
       <c r="G58">
         <v>252</v>
       </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
       <c r="J58">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.1518324607329844</v>
       </c>
       <c r="K58">
-        <f>D58/C58</f>
-        <v>1.1518324607329844</v>
+        <f t="shared" si="1"/>
+        <v>1.3193717277486912</v>
       </c>
       <c r="L58">
-        <f>E58/C58</f>
+        <f t="shared" si="2"/>
         <v>1.3193717277486912</v>
       </c>
-      <c r="M58">
-        <f>F58/C58</f>
-        <v>1.3193717277486912</v>
-      </c>
-      <c r="N58">
-        <f>G58/C58</f>
-        <v>1.3193717277486912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>18</v>
       </c>
@@ -5818,27 +5579,23 @@
       <c r="G59">
         <v>141</v>
       </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
       <c r="J59">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.4049586776859504</v>
       </c>
       <c r="K59">
-        <f>D59/C59</f>
-        <v>1.4049586776859504</v>
+        <f t="shared" si="1"/>
+        <v>1.165289256198347</v>
       </c>
       <c r="L59">
-        <f>E59/C59</f>
-        <v>1.165289256198347</v>
-      </c>
-      <c r="M59">
-        <f>F59/C59</f>
+        <f t="shared" si="2"/>
         <v>1.3801652892561984</v>
       </c>
-      <c r="N59">
-        <f>G59/C59</f>
-        <v>1.165289256198347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>19</v>
       </c>
@@ -5860,27 +5617,23 @@
       <c r="G60">
         <v>249</v>
       </c>
+      <c r="I60">
+        <v>7</v>
+      </c>
       <c r="J60">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.7193877551020409</v>
       </c>
       <c r="K60">
-        <f>D60/C60</f>
-        <v>1.7193877551020409</v>
+        <f t="shared" si="1"/>
+        <v>1.2704081632653061</v>
       </c>
       <c r="L60">
-        <f>E60/C60</f>
-        <v>1.2704081632653061</v>
-      </c>
-      <c r="M60">
-        <f>F60/C60</f>
+        <f t="shared" si="2"/>
         <v>1.3010204081632653</v>
       </c>
-      <c r="N60">
-        <f>G60/C60</f>
-        <v>1.2704081632653061</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>20</v>
       </c>
@@ -5902,27 +5655,23 @@
       <c r="G61">
         <v>117</v>
       </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
       <c r="J61">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1.170940170940171</v>
       </c>
       <c r="K61">
-        <f>D61/C61</f>
-        <v>1.170940170940171</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L61">
-        <f>E61/C61</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M61">
-        <f>F61/C61</f>
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <f>G61/C61</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5944,27 +5693,23 @@
       <c r="G62">
         <v>196</v>
       </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
       <c r="J62">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>1.4961832061068703</v>
       </c>
       <c r="K62">
-        <f>D62/C62</f>
+        <f t="shared" si="1"/>
         <v>1.4961832061068703</v>
       </c>
       <c r="L62">
-        <f>E62/C62</f>
+        <f t="shared" si="2"/>
         <v>1.4961832061068703</v>
       </c>
-      <c r="M62">
-        <f>F62/C62</f>
-        <v>1.4961832061068703</v>
-      </c>
-      <c r="N62">
-        <f>G62/C62</f>
-        <v>1.4961832061068703</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5986,27 +5731,23 @@
       <c r="G63">
         <v>269</v>
       </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
       <c r="J63">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>1.1604938271604939</v>
       </c>
       <c r="K63">
-        <f>D63/C63</f>
-        <v>1.1604938271604939</v>
+        <f t="shared" si="1"/>
+        <v>1.6604938271604939</v>
       </c>
       <c r="L63">
-        <f>E63/C63</f>
+        <f t="shared" si="2"/>
         <v>1.6604938271604939</v>
       </c>
-      <c r="M63">
-        <f>F63/C63</f>
-        <v>1.6604938271604939</v>
-      </c>
-      <c r="N63">
-        <f>G63/C63</f>
-        <v>1.6604938271604939</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>3</v>
       </c>
@@ -6028,27 +5769,23 @@
       <c r="G64">
         <v>236</v>
       </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
       <c r="J64">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>1.1348837209302325</v>
       </c>
       <c r="K64">
-        <f>D64/C64</f>
-        <v>1.1348837209302325</v>
+        <f t="shared" si="1"/>
+        <v>1.0976744186046512</v>
       </c>
       <c r="L64">
-        <f>E64/C64</f>
+        <f t="shared" si="2"/>
         <v>1.0976744186046512</v>
       </c>
-      <c r="M64">
-        <f>F64/C64</f>
-        <v>1.0976744186046512</v>
-      </c>
-      <c r="N64">
-        <f>G64/C64</f>
-        <v>1.0976744186046512</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4</v>
       </c>
@@ -6070,27 +5807,23 @@
       <c r="G65">
         <v>130</v>
       </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
       <c r="J65">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K65">
-        <f>D65/C65</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L65">
-        <f>E65/C65</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M65">
-        <f>F65/C65</f>
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <f>G65/C65</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5</v>
       </c>
@@ -6112,27 +5845,23 @@
       <c r="G66">
         <v>303</v>
       </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
       <c r="J66">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>1.4549356223175967</v>
       </c>
       <c r="K66">
-        <f>D66/C66</f>
-        <v>1.4549356223175967</v>
+        <f t="shared" si="1"/>
+        <v>1.3004291845493563</v>
       </c>
       <c r="L66">
-        <f>E66/C66</f>
+        <f t="shared" si="2"/>
         <v>1.3004291845493563</v>
       </c>
-      <c r="M66">
-        <f>F66/C66</f>
-        <v>1.3004291845493563</v>
-      </c>
-      <c r="N66">
-        <f>G66/C66</f>
-        <v>1.3004291845493563</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6</v>
       </c>
@@ -6154,27 +5883,23 @@
       <c r="G67">
         <v>226</v>
       </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
       <c r="J67">
-        <v>8</v>
+        <f t="shared" ref="J67:J101" si="3">D67/C67</f>
+        <v>1.4293478260869565</v>
       </c>
       <c r="K67">
-        <f>D67/C67</f>
-        <v>1.4293478260869565</v>
+        <f t="shared" ref="K67:K101" si="4">E67/C67</f>
+        <v>1.8532608695652173</v>
       </c>
       <c r="L67">
-        <f>E67/C67</f>
-        <v>1.8532608695652173</v>
-      </c>
-      <c r="M67">
-        <f>F67/C67</f>
+        <f t="shared" ref="L67:L101" si="5">F67/C67</f>
         <v>1.2282608695652173</v>
       </c>
-      <c r="N67">
-        <f>G67/C67</f>
-        <v>1.2282608695652173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>7</v>
       </c>
@@ -6196,27 +5921,23 @@
       <c r="G68">
         <v>190</v>
       </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
       <c r="J68">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.2210526315789474</v>
       </c>
       <c r="K68">
-        <f>D68/C68</f>
-        <v>1.2210526315789474</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="L68">
-        <f>E68/C68</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M68">
-        <f>F68/C68</f>
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <f>G68/C68</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>8</v>
       </c>
@@ -6238,27 +5959,23 @@
       <c r="G69">
         <v>281</v>
       </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
       <c r="J69">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.0398406374501992</v>
       </c>
       <c r="K69">
-        <f>D69/C69</f>
-        <v>1.0398406374501992</v>
+        <f t="shared" si="4"/>
+        <v>1.2151394422310757</v>
       </c>
       <c r="L69">
-        <f>E69/C69</f>
+        <f t="shared" si="5"/>
         <v>1.2151394422310757</v>
       </c>
-      <c r="M69">
-        <f>F69/C69</f>
-        <v>1.2151394422310757</v>
-      </c>
-      <c r="N69">
-        <f>G69/C69</f>
-        <v>1.1195219123505975</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>9</v>
       </c>
@@ -6280,27 +5997,23 @@
       <c r="G70">
         <v>233</v>
       </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
       <c r="J70">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K70">
-        <f>D70/C70</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L70">
-        <f>E70/C70</f>
+        <f t="shared" si="5"/>
         <v>1.2916666666666667</v>
       </c>
-      <c r="M70">
-        <f>F70/C70</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="N70">
-        <f>G70/C70</f>
-        <v>1.2135416666666667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>10</v>
       </c>
@@ -6322,27 +6035,23 @@
       <c r="G71">
         <v>277</v>
       </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
       <c r="J71">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.103321033210332</v>
       </c>
       <c r="K71">
-        <f>D71/C71</f>
-        <v>1.103321033210332</v>
+        <f t="shared" si="4"/>
+        <v>1.0221402214022139</v>
       </c>
       <c r="L71">
-        <f>E71/C71</f>
+        <f t="shared" si="5"/>
         <v>1.0221402214022139</v>
       </c>
-      <c r="M71">
-        <f>F71/C71</f>
-        <v>1.0221402214022139</v>
-      </c>
-      <c r="N71">
-        <f>G71/C71</f>
-        <v>1.0221402214022139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>11</v>
       </c>
@@ -6364,27 +6073,23 @@
       <c r="G72">
         <v>252</v>
       </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
       <c r="J72">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.1755725190839694</v>
       </c>
       <c r="K72">
-        <f>D72/C72</f>
+        <f t="shared" si="4"/>
         <v>1.1755725190839694</v>
       </c>
       <c r="L72">
-        <f>E72/C72</f>
+        <f t="shared" si="5"/>
         <v>1.1755725190839694</v>
       </c>
-      <c r="M72">
-        <f>F72/C72</f>
-        <v>1.1755725190839694</v>
-      </c>
-      <c r="N72">
-        <f>G72/C72</f>
-        <v>1.9236641221374047</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>12</v>
       </c>
@@ -6406,27 +6111,23 @@
       <c r="G73">
         <v>287</v>
       </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
       <c r="J73">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.5682819383259912</v>
       </c>
       <c r="K73">
-        <f>D73/C73</f>
-        <v>1.5682819383259912</v>
+        <f t="shared" si="4"/>
+        <v>1.2643171806167401</v>
       </c>
       <c r="L73">
-        <f>E73/C73</f>
+        <f t="shared" si="5"/>
         <v>1.2643171806167401</v>
       </c>
-      <c r="M73">
-        <f>F73/C73</f>
-        <v>1.2643171806167401</v>
-      </c>
-      <c r="N73">
-        <f>G73/C73</f>
-        <v>1.2643171806167401</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>13</v>
       </c>
@@ -6448,27 +6149,23 @@
       <c r="G74">
         <v>148</v>
       </c>
+      <c r="I74">
+        <v>8</v>
+      </c>
       <c r="J74">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.032</v>
       </c>
       <c r="K74">
-        <f>D74/C74</f>
-        <v>1.032</v>
+        <f t="shared" si="4"/>
+        <v>1.1839999999999999</v>
       </c>
       <c r="L74">
-        <f>E74/C74</f>
+        <f t="shared" si="5"/>
         <v>1.1839999999999999</v>
       </c>
-      <c r="M74">
-        <f>F74/C74</f>
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="N74">
-        <f>G74/C74</f>
-        <v>1.1839999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>14</v>
       </c>
@@ -6490,27 +6187,23 @@
       <c r="G75">
         <v>227</v>
       </c>
+      <c r="I75">
+        <v>8</v>
+      </c>
       <c r="J75">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.2321428571428572</v>
       </c>
       <c r="K75">
-        <f>D75/C75</f>
-        <v>1.2321428571428572</v>
+        <f t="shared" si="4"/>
+        <v>1.4702380952380953</v>
       </c>
       <c r="L75">
-        <f>E75/C75</f>
-        <v>1.4702380952380953</v>
-      </c>
-      <c r="M75">
-        <f>F75/C75</f>
+        <f t="shared" si="5"/>
         <v>1.3511904761904763</v>
       </c>
-      <c r="N75">
-        <f>G75/C75</f>
-        <v>1.3511904761904763</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>15</v>
       </c>
@@ -6532,27 +6225,23 @@
       <c r="G76">
         <v>184</v>
       </c>
+      <c r="I76">
+        <v>8</v>
+      </c>
       <c r="J76">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.0122699386503067</v>
       </c>
       <c r="K76">
-        <f>D76/C76</f>
-        <v>1.0122699386503067</v>
+        <f t="shared" si="4"/>
+        <v>1.1288343558282208</v>
       </c>
       <c r="L76">
-        <f>E76/C76</f>
+        <f t="shared" si="5"/>
         <v>1.1288343558282208</v>
       </c>
-      <c r="M76">
-        <f>F76/C76</f>
-        <v>1.1288343558282208</v>
-      </c>
-      <c r="N76">
-        <f>G76/C76</f>
-        <v>1.1288343558282208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16</v>
       </c>
@@ -6574,27 +6263,23 @@
       <c r="G77">
         <v>170</v>
       </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
       <c r="J77">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K77">
-        <f>D77/C77</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.3821138211382114</v>
       </c>
       <c r="L77">
-        <f>E77/C77</f>
+        <f t="shared" si="5"/>
         <v>1.3821138211382114</v>
       </c>
-      <c r="M77">
-        <f>F77/C77</f>
-        <v>1.3821138211382114</v>
-      </c>
-      <c r="N77">
-        <f>G77/C77</f>
-        <v>1.3821138211382114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>17</v>
       </c>
@@ -6616,27 +6301,23 @@
       <c r="G78">
         <v>269</v>
       </c>
+      <c r="I78">
+        <v>8</v>
+      </c>
       <c r="J78">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.1382488479262673</v>
       </c>
       <c r="K78">
-        <f>D78/C78</f>
-        <v>1.1382488479262673</v>
+        <f t="shared" si="4"/>
+        <v>1.23963133640553</v>
       </c>
       <c r="L78">
-        <f>E78/C78</f>
+        <f t="shared" si="5"/>
         <v>1.23963133640553</v>
       </c>
-      <c r="M78">
-        <f>F78/C78</f>
-        <v>1.23963133640553</v>
-      </c>
-      <c r="N78">
-        <f>G78/C78</f>
-        <v>1.23963133640553</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>18</v>
       </c>
@@ -6658,27 +6339,23 @@
       <c r="G79">
         <v>136</v>
       </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
       <c r="J79">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.2426470588235294</v>
       </c>
       <c r="K79">
-        <f>D79/C79</f>
-        <v>1.2426470588235294</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="L79">
-        <f>E79/C79</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M79">
-        <f>F79/C79</f>
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <f>G79/C79</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>19</v>
       </c>
@@ -6700,27 +6377,23 @@
       <c r="G80">
         <v>99</v>
       </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
       <c r="J80">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.292929292929293</v>
       </c>
       <c r="K80">
-        <f>D80/C80</f>
-        <v>1.292929292929293</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="L80">
-        <f>E80/C80</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M80">
-        <f>F80/C80</f>
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <f>G80/C80</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>20</v>
       </c>
@@ -6742,27 +6415,23 @@
       <c r="G81">
         <v>167</v>
       </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
       <c r="J81">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1.1836734693877551</v>
       </c>
       <c r="K81">
-        <f>D81/C81</f>
-        <v>1.1836734693877551</v>
+        <f t="shared" si="4"/>
+        <v>1.1360544217687074</v>
       </c>
       <c r="L81">
-        <f>E81/C81</f>
+        <f t="shared" si="5"/>
         <v>1.1360544217687074</v>
       </c>
-      <c r="M81">
-        <f>F81/C81</f>
-        <v>1.1360544217687074</v>
-      </c>
-      <c r="N81">
-        <f>G81/C81</f>
-        <v>1.1360544217687074</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -6784,27 +6453,23 @@
       <c r="G82">
         <v>270</v>
       </c>
+      <c r="I82">
+        <v>9</v>
+      </c>
       <c r="J82">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.5707762557077625</v>
       </c>
       <c r="K82">
-        <f>D82/C82</f>
-        <v>1.5707762557077625</v>
+        <f t="shared" si="4"/>
+        <v>1.1050228310502284</v>
       </c>
       <c r="L82">
-        <f>E82/C82</f>
-        <v>1.1050228310502284</v>
-      </c>
-      <c r="M82">
-        <f>F82/C82</f>
+        <f t="shared" si="5"/>
         <v>1.2328767123287672</v>
       </c>
-      <c r="N82">
-        <f>G82/C82</f>
-        <v>1.2328767123287672</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2</v>
       </c>
@@ -6826,27 +6491,23 @@
       <c r="G83">
         <v>250</v>
       </c>
+      <c r="I83">
+        <v>9</v>
+      </c>
       <c r="J83">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.8313253012048192</v>
       </c>
       <c r="K83">
-        <f>D83/C83</f>
-        <v>1.8313253012048192</v>
+        <f t="shared" si="4"/>
+        <v>1.4819277108433735</v>
       </c>
       <c r="L83">
-        <f>E83/C83</f>
-        <v>1.4819277108433735</v>
-      </c>
-      <c r="M83">
-        <f>F83/C83</f>
+        <f t="shared" si="5"/>
         <v>1.5060240963855422</v>
       </c>
-      <c r="N83">
-        <f>G83/C83</f>
-        <v>1.5060240963855422</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6868,27 +6529,23 @@
       <c r="G84">
         <v>192</v>
       </c>
+      <c r="I84">
+        <v>9</v>
+      </c>
       <c r="J84">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.1764705882352942</v>
       </c>
       <c r="K84">
-        <f>D84/C84</f>
-        <v>1.1764705882352942</v>
+        <f t="shared" si="4"/>
+        <v>1.2549019607843137</v>
       </c>
       <c r="L84">
-        <f>E84/C84</f>
+        <f t="shared" si="5"/>
         <v>1.2549019607843137</v>
       </c>
-      <c r="M84">
-        <f>F84/C84</f>
-        <v>1.2549019607843137</v>
-      </c>
-      <c r="N84">
-        <f>G84/C84</f>
-        <v>1.2549019607843137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6910,27 +6567,23 @@
       <c r="G85">
         <v>267</v>
       </c>
+      <c r="I85">
+        <v>9</v>
+      </c>
       <c r="J85">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.1832061068702291</v>
       </c>
       <c r="K85">
-        <f>D85/C85</f>
+        <f t="shared" si="4"/>
         <v>1.1832061068702291</v>
       </c>
       <c r="L85">
-        <f>E85/C85</f>
-        <v>1.1832061068702291</v>
-      </c>
-      <c r="M85">
-        <f>F85/C85</f>
+        <f t="shared" si="5"/>
         <v>1.0152671755725191</v>
       </c>
-      <c r="N85">
-        <f>G85/C85</f>
-        <v>2.0381679389312977</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5</v>
       </c>
@@ -6952,27 +6605,23 @@
       <c r="G86">
         <v>310</v>
       </c>
+      <c r="I86">
+        <v>9</v>
+      </c>
       <c r="J86">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.4242424242424243</v>
       </c>
       <c r="K86">
-        <f>D86/C86</f>
-        <v>1.4242424242424243</v>
+        <f t="shared" si="4"/>
+        <v>1.1515151515151516</v>
       </c>
       <c r="L86">
-        <f>E86/C86</f>
-        <v>1.1515151515151516</v>
-      </c>
-      <c r="M86">
-        <f>F86/C86</f>
+        <f t="shared" si="5"/>
         <v>1.5656565656565657</v>
       </c>
-      <c r="N86">
-        <f>G86/C86</f>
-        <v>1.5656565656565657</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>6</v>
       </c>
@@ -6994,27 +6643,23 @@
       <c r="G87">
         <v>270</v>
       </c>
+      <c r="I87">
+        <v>9</v>
+      </c>
       <c r="J87">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.6962025316455696</v>
       </c>
       <c r="K87">
-        <f>D87/C87</f>
-        <v>1.6962025316455696</v>
+        <f t="shared" si="4"/>
+        <v>1.3734177215189873</v>
       </c>
       <c r="L87">
-        <f>E87/C87</f>
-        <v>1.3734177215189873</v>
-      </c>
-      <c r="M87">
-        <f>F87/C87</f>
+        <f t="shared" si="5"/>
         <v>1.7088607594936709</v>
       </c>
-      <c r="N87">
-        <f>G87/C87</f>
-        <v>1.7088607594936709</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>7</v>
       </c>
@@ -7036,27 +6681,23 @@
       <c r="G88">
         <v>259</v>
       </c>
+      <c r="I88">
+        <v>9</v>
+      </c>
       <c r="J88">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K88">
-        <f>D88/C88</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.2619047619047619</v>
       </c>
       <c r="L88">
-        <f>E88/C88</f>
-        <v>1.2619047619047619</v>
-      </c>
-      <c r="M88">
-        <f>F88/C88</f>
+        <f t="shared" si="5"/>
         <v>1.5416666666666667</v>
       </c>
-      <c r="N88">
-        <f>G88/C88</f>
-        <v>1.5416666666666667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8</v>
       </c>
@@ -7078,27 +6719,23 @@
       <c r="G89">
         <v>219</v>
       </c>
+      <c r="I89">
+        <v>9</v>
+      </c>
       <c r="J89">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.3295454545454546</v>
       </c>
       <c r="K89">
-        <f>D89/C89</f>
-        <v>1.3295454545454546</v>
+        <f t="shared" si="4"/>
+        <v>1.1306818181818181</v>
       </c>
       <c r="L89">
-        <f>E89/C89</f>
-        <v>1.1306818181818181</v>
-      </c>
-      <c r="M89">
-        <f>F89/C89</f>
+        <f t="shared" si="5"/>
         <v>1.2443181818181819</v>
       </c>
-      <c r="N89">
-        <f>G89/C89</f>
-        <v>1.2443181818181819</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
@@ -7120,27 +6757,23 @@
       <c r="G90">
         <v>269</v>
       </c>
+      <c r="I90">
+        <v>9</v>
+      </c>
       <c r="J90">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.1092896174863387</v>
       </c>
       <c r="K90">
-        <f>D90/C90</f>
-        <v>1.1092896174863387</v>
+        <f t="shared" si="4"/>
+        <v>1.4863387978142077</v>
       </c>
       <c r="L90">
-        <f>E90/C90</f>
-        <v>1.4863387978142077</v>
-      </c>
-      <c r="M90">
-        <f>F90/C90</f>
+        <f t="shared" si="5"/>
         <v>1.2349726775956285</v>
       </c>
-      <c r="N90">
-        <f>G90/C90</f>
-        <v>1.4699453551912569</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>10</v>
       </c>
@@ -7162,27 +6795,23 @@
       <c r="G91">
         <v>287</v>
       </c>
+      <c r="I91">
+        <v>9</v>
+      </c>
       <c r="J91">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.3714285714285714</v>
       </c>
       <c r="K91">
-        <f>D91/C91</f>
-        <v>1.3714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>1.3523809523809525</v>
       </c>
       <c r="L91">
-        <f>E91/C91</f>
-        <v>1.3523809523809525</v>
-      </c>
-      <c r="M91">
-        <f>F91/C91</f>
+        <f t="shared" si="5"/>
         <v>1.3666666666666667</v>
       </c>
-      <c r="N91">
-        <f>G91/C91</f>
-        <v>1.3666666666666667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>11</v>
       </c>
@@ -7204,27 +6833,23 @@
       <c r="G92">
         <v>247</v>
       </c>
+      <c r="I92">
+        <v>9</v>
+      </c>
       <c r="J92">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.4651162790697674</v>
       </c>
       <c r="K92">
-        <f>D92/C92</f>
-        <v>1.4651162790697674</v>
+        <f t="shared" si="4"/>
+        <v>1.4360465116279071</v>
       </c>
       <c r="L92">
-        <f>E92/C92</f>
+        <f t="shared" si="5"/>
         <v>1.4360465116279071</v>
       </c>
-      <c r="M92">
-        <f>F92/C92</f>
-        <v>1.4360465116279071</v>
-      </c>
-      <c r="N92">
-        <f>G92/C92</f>
-        <v>1.4360465116279071</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>12</v>
       </c>
@@ -7246,27 +6871,23 @@
       <c r="G93">
         <v>249</v>
       </c>
+      <c r="I93">
+        <v>9</v>
+      </c>
       <c r="J93">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.1296296296296295</v>
       </c>
       <c r="K93">
-        <f>D93/C93</f>
+        <f t="shared" si="4"/>
         <v>1.1296296296296295</v>
       </c>
       <c r="L93">
-        <f>E93/C93</f>
-        <v>1.1296296296296295</v>
-      </c>
-      <c r="M93">
-        <f>F93/C93</f>
+        <f t="shared" si="5"/>
         <v>1.537037037037037</v>
       </c>
-      <c r="N93">
-        <f>G93/C93</f>
-        <v>1.537037037037037</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>13</v>
       </c>
@@ -7288,27 +6909,23 @@
       <c r="G94">
         <v>311</v>
       </c>
+      <c r="I94">
+        <v>9</v>
+      </c>
       <c r="J94">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.2</v>
       </c>
       <c r="K94">
-        <f>D94/C94</f>
-        <v>1.2</v>
+        <f t="shared" si="4"/>
+        <v>1.27</v>
       </c>
       <c r="L94">
-        <f>E94/C94</f>
-        <v>1.27</v>
-      </c>
-      <c r="M94">
-        <f>F94/C94</f>
+        <f t="shared" si="5"/>
         <v>1.59</v>
       </c>
-      <c r="N94">
-        <f>G94/C94</f>
-        <v>1.5549999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>14</v>
       </c>
@@ -7330,27 +6947,23 @@
       <c r="G95">
         <v>306</v>
       </c>
+      <c r="I95">
+        <v>9</v>
+      </c>
       <c r="J95">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.3097826086956521</v>
       </c>
       <c r="K95">
-        <f>D95/C95</f>
-        <v>1.3097826086956521</v>
+        <f t="shared" si="4"/>
+        <v>1.3641304347826086</v>
       </c>
       <c r="L95">
-        <f>E95/C95</f>
-        <v>1.3641304347826086</v>
-      </c>
-      <c r="M95">
-        <f>F95/C95</f>
+        <f t="shared" si="5"/>
         <v>1.2771739130434783</v>
       </c>
-      <c r="N95">
-        <f>G95/C95</f>
-        <v>1.6630434782608696</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>15</v>
       </c>
@@ -7372,27 +6985,23 @@
       <c r="G96">
         <v>270</v>
       </c>
+      <c r="I96">
+        <v>9</v>
+      </c>
       <c r="J96">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.3718592964824121</v>
       </c>
       <c r="K96">
-        <f>D96/C96</f>
-        <v>1.3718592964824121</v>
+        <f t="shared" si="4"/>
+        <v>1.4723618090452262</v>
       </c>
       <c r="L96">
-        <f>E96/C96</f>
-        <v>1.4723618090452262</v>
-      </c>
-      <c r="M96">
-        <f>F96/C96</f>
+        <f t="shared" si="5"/>
         <v>1.3869346733668342</v>
       </c>
-      <c r="N96">
-        <f>G96/C96</f>
-        <v>1.3567839195979901</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>16</v>
       </c>
@@ -7414,27 +7023,23 @@
       <c r="G97">
         <v>328</v>
       </c>
+      <c r="I97">
+        <v>9</v>
+      </c>
       <c r="J97">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.3605769230769231</v>
       </c>
       <c r="K97">
-        <f>D97/C97</f>
-        <v>1.3605769230769231</v>
+        <f t="shared" si="4"/>
+        <v>1.1057692307692308</v>
       </c>
       <c r="L97">
-        <f>E97/C97</f>
-        <v>1.1057692307692308</v>
-      </c>
-      <c r="M97">
-        <f>F97/C97</f>
+        <f t="shared" si="5"/>
         <v>1.5769230769230769</v>
       </c>
-      <c r="N97">
-        <f>G97/C97</f>
-        <v>1.5769230769230769</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>17</v>
       </c>
@@ -7456,27 +7061,23 @@
       <c r="G98">
         <v>360</v>
       </c>
+      <c r="I98">
+        <v>9</v>
+      </c>
       <c r="J98">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.0042735042735043</v>
       </c>
       <c r="K98">
-        <f>D98/C98</f>
-        <v>1.0042735042735043</v>
+        <f t="shared" si="4"/>
+        <v>1.482905982905983</v>
       </c>
       <c r="L98">
-        <f>E98/C98</f>
-        <v>1.482905982905983</v>
-      </c>
-      <c r="M98">
-        <f>F98/C98</f>
+        <f t="shared" si="5"/>
         <v>1.4572649572649572</v>
       </c>
-      <c r="N98">
-        <f>G98/C98</f>
-        <v>1.5384615384615385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>18</v>
       </c>
@@ -7498,27 +7099,23 @@
       <c r="G99">
         <v>252</v>
       </c>
+      <c r="I99">
+        <v>9</v>
+      </c>
       <c r="J99">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.5064935064935066</v>
       </c>
       <c r="K99">
-        <f>D99/C99</f>
+        <f t="shared" si="4"/>
         <v>1.5064935064935066</v>
       </c>
       <c r="L99">
-        <f>E99/C99</f>
-        <v>1.5064935064935066</v>
-      </c>
-      <c r="M99">
-        <f>F99/C99</f>
+        <f t="shared" si="5"/>
         <v>1.5194805194805194</v>
       </c>
-      <c r="N99">
-        <f>G99/C99</f>
-        <v>1.6363636363636365</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>19</v>
       </c>
@@ -7540,27 +7137,23 @@
       <c r="G100">
         <v>262</v>
       </c>
+      <c r="I100">
+        <v>9</v>
+      </c>
       <c r="J100">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.6424581005586592</v>
       </c>
       <c r="K100">
-        <f>D100/C100</f>
-        <v>1.6424581005586592</v>
+        <f t="shared" si="4"/>
+        <v>1.1229050279329609</v>
       </c>
       <c r="L100">
-        <f>E100/C100</f>
-        <v>1.1229050279329609</v>
-      </c>
-      <c r="M100">
-        <f>F100/C100</f>
+        <f t="shared" si="5"/>
         <v>1.4636871508379887</v>
       </c>
-      <c r="N100">
-        <f>G100/C100</f>
-        <v>1.4636871508379887</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>20</v>
       </c>
@@ -7582,23 +7175,19 @@
       <c r="G101">
         <v>297</v>
       </c>
+      <c r="I101">
+        <v>9</v>
+      </c>
       <c r="J101">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1.9900990099009901</v>
       </c>
       <c r="K101">
-        <f>D101/C101</f>
-        <v>1.9900990099009901</v>
+        <f t="shared" si="4"/>
+        <v>1.5594059405940595</v>
       </c>
       <c r="L101">
-        <f>E101/C101</f>
-        <v>1.5594059405940595</v>
-      </c>
-      <c r="M101">
-        <f>F101/C101</f>
-        <v>1.4702970297029703</v>
-      </c>
-      <c r="N101">
-        <f>G101/C101</f>
+        <f t="shared" si="5"/>
         <v>1.4702970297029703</v>
       </c>
     </row>

--- a/Ergebnisse-normal.xlsx
+++ b/Ergebnisse-normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E1FE9-5344-4197-A42C-1784EDD82D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A643C177-39A2-44A9-B499-6296DF1ED171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,7 +1176,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-311D-4FA5-858C-10AA4A294EA8}"/>
+              <c16:uniqueId val="{00000000-33FE-4146-A68E-291F357A9885}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2198,7 +2198,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-311D-4FA5-858C-10AA4A294EA8}"/>
+              <c16:uniqueId val="{00000001-33FE-4146-A68E-291F357A9885}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3220,12 +3220,11 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-311D-4FA5-858C-10AA4A294EA8}"/>
+              <c16:uniqueId val="{00000002-33FE-4146-A68E-291F357A9885}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3233,11 +3232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="614509600"/>
-        <c:axId val="614510304"/>
+        <c:axId val="664845824"/>
+        <c:axId val="664840896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="614509600"/>
+        <c:axId val="664845824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,12 +3294,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614510304"/>
+        <c:crossAx val="664840896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="614510304"/>
+        <c:axId val="664840896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,7 +3357,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614509600"/>
+        <c:crossAx val="664845824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4075,23 +4074,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE20A60-BA86-BAEB-960B-D8C4B39B5982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC280D26-031B-D686-AB1E-C283D8BFB52E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4432,7 +4431,7 @@
   <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="L1" activeCellId="3" sqref="I1:I1048576 J1:J1048576 K1:K1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5252,7 +5251,7 @@
         <v>211</v>
       </c>
       <c r="G22">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -5328,7 +5327,7 @@
         <v>205</v>
       </c>
       <c r="G24">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -5442,7 +5441,7 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -6202,7 +6201,7 @@
         <v>146</v>
       </c>
       <c r="G47">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="I47">
         <v>5</v>
@@ -6278,7 +6277,7 @@
         <v>216</v>
       </c>
       <c r="G49">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="I49">
         <v>5</v>
@@ -6316,7 +6315,7 @@
         <v>262</v>
       </c>
       <c r="G50">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I50">
         <v>5</v>
@@ -6430,7 +6429,7 @@
         <v>235</v>
       </c>
       <c r="G53">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I53">
         <v>5</v>
@@ -6468,7 +6467,7 @@
         <v>165</v>
       </c>
       <c r="G54">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I54">
         <v>5</v>
@@ -6506,7 +6505,7 @@
         <v>183</v>
       </c>
       <c r="G55">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="I55">
         <v>5</v>
@@ -6544,7 +6543,7 @@
         <v>149</v>
       </c>
       <c r="G56">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="I56">
         <v>5</v>
@@ -6810,7 +6809,7 @@
         <v>192</v>
       </c>
       <c r="G63">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="I63">
         <v>6</v>
@@ -6886,7 +6885,7 @@
         <v>207</v>
       </c>
       <c r="G65">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I65">
         <v>6</v>
@@ -7076,7 +7075,7 @@
         <v>181</v>
       </c>
       <c r="G70">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="I70">
         <v>6</v>
@@ -7152,7 +7151,7 @@
         <v>251</v>
       </c>
       <c r="G72">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="I72">
         <v>6</v>
@@ -7266,7 +7265,7 @@
         <v>209</v>
       </c>
       <c r="G75">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="I75">
         <v>6</v>
@@ -7304,7 +7303,7 @@
         <v>234</v>
       </c>
       <c r="G76">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I76">
         <v>6</v>
@@ -7342,7 +7341,7 @@
         <v>250</v>
       </c>
       <c r="G77">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="I77">
         <v>6</v>
@@ -7570,7 +7569,7 @@
         <v>251</v>
       </c>
       <c r="G83">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="I83">
         <v>7</v>
@@ -7646,7 +7645,7 @@
         <v>296</v>
       </c>
       <c r="G85">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I85">
         <v>7</v>
@@ -7760,7 +7759,7 @@
         <v>178</v>
       </c>
       <c r="G88">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I88">
         <v>7</v>
@@ -7912,7 +7911,7 @@
         <v>279</v>
       </c>
       <c r="G92">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="I92">
         <v>7</v>
@@ -7988,7 +7987,7 @@
         <v>161</v>
       </c>
       <c r="G94">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="I94">
         <v>7</v>
@@ -8026,7 +8025,7 @@
         <v>176</v>
       </c>
       <c r="G95">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I95">
         <v>7</v>
@@ -8178,7 +8177,7 @@
         <v>167</v>
       </c>
       <c r="G99">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="I99">
         <v>7</v>
@@ -8292,7 +8291,7 @@
         <v>196</v>
       </c>
       <c r="G102">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="I102">
         <v>8</v>
@@ -8406,7 +8405,7 @@
         <v>130</v>
       </c>
       <c r="G105">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="I105">
         <v>8</v>
@@ -8444,7 +8443,7 @@
         <v>303</v>
       </c>
       <c r="G106">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="I106">
         <v>8</v>
@@ -8482,7 +8481,7 @@
         <v>226</v>
       </c>
       <c r="G107">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I107">
         <v>8</v>
@@ -8558,7 +8557,7 @@
         <v>305</v>
       </c>
       <c r="G109">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="I109">
         <v>8</v>
@@ -8710,7 +8709,7 @@
         <v>287</v>
       </c>
       <c r="G113">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I113">
         <v>8</v>
@@ -8748,7 +8747,7 @@
         <v>148</v>
       </c>
       <c r="G114">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="I114">
         <v>8</v>
@@ -8786,7 +8785,7 @@
         <v>227</v>
       </c>
       <c r="G115">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="I115">
         <v>8</v>
@@ -8900,7 +8899,7 @@
         <v>269</v>
       </c>
       <c r="G118">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I118">
         <v>8</v>
@@ -8976,7 +8975,7 @@
         <v>99</v>
       </c>
       <c r="G120">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="I120">
         <v>8</v>
@@ -9014,7 +9013,7 @@
         <v>167</v>
       </c>
       <c r="G121">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="I121">
         <v>8</v>
@@ -9052,7 +9051,7 @@
         <v>270</v>
       </c>
       <c r="G122">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="I122">
         <v>9</v>
@@ -9128,7 +9127,7 @@
         <v>192</v>
       </c>
       <c r="G124">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="I124">
         <v>9</v>
@@ -9204,7 +9203,7 @@
         <v>310</v>
       </c>
       <c r="G126">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="I126">
         <v>9</v>
@@ -9242,7 +9241,7 @@
         <v>270</v>
       </c>
       <c r="G127">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="I127">
         <v>9</v>
@@ -9280,7 +9279,7 @@
         <v>259</v>
       </c>
       <c r="G128">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="I128">
         <v>9</v>
@@ -9318,7 +9317,7 @@
         <v>219</v>
       </c>
       <c r="G129">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="I129">
         <v>9</v>
@@ -9356,7 +9355,7 @@
         <v>226</v>
       </c>
       <c r="G130">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="I130">
         <v>9</v>
@@ -9394,7 +9393,7 @@
         <v>287</v>
       </c>
       <c r="G131">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="I131">
         <v>9</v>
@@ -9432,7 +9431,7 @@
         <v>247</v>
       </c>
       <c r="G132">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="I132">
         <v>9</v>
@@ -9508,7 +9507,7 @@
         <v>318</v>
       </c>
       <c r="G134">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="I134">
         <v>9</v>
@@ -9546,7 +9545,7 @@
         <v>235</v>
       </c>
       <c r="G135">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I135">
         <v>9</v>
@@ -9584,7 +9583,7 @@
         <v>276</v>
       </c>
       <c r="G136">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="I136">
         <v>9</v>
@@ -9622,7 +9621,7 @@
         <v>328</v>
       </c>
       <c r="G137">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="I137">
         <v>9</v>
@@ -9660,7 +9659,7 @@
         <v>341</v>
       </c>
       <c r="G138">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="I138">
         <v>9</v>
@@ -9736,7 +9735,7 @@
         <v>262</v>
       </c>
       <c r="G140">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="I140">
         <v>9</v>
@@ -9774,7 +9773,7 @@
         <v>297</v>
       </c>
       <c r="G141">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="I141">
         <v>9</v>
@@ -9812,7 +9811,7 @@
         <v>230</v>
       </c>
       <c r="G142">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="I142">
         <v>10</v>
@@ -9926,7 +9925,7 @@
         <v>286</v>
       </c>
       <c r="G145">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="I145">
         <v>10</v>
@@ -10002,7 +10001,7 @@
         <v>275</v>
       </c>
       <c r="G147">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I147">
         <v>10</v>
@@ -10040,7 +10039,7 @@
         <v>349</v>
       </c>
       <c r="G148">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="I148">
         <v>10</v>
@@ -10078,7 +10077,7 @@
         <v>325</v>
       </c>
       <c r="G149">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="I149">
         <v>10</v>
@@ -10116,7 +10115,7 @@
         <v>241</v>
       </c>
       <c r="G150">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="I150">
         <v>10</v>
@@ -10154,7 +10153,7 @@
         <v>342</v>
       </c>
       <c r="G151">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="I151">
         <v>10</v>
@@ -10192,7 +10191,7 @@
         <v>254</v>
       </c>
       <c r="G152">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="I152">
         <v>10</v>
@@ -10230,7 +10229,7 @@
         <v>373</v>
       </c>
       <c r="G153">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="I153">
         <v>10</v>
@@ -10268,7 +10267,7 @@
         <v>261</v>
       </c>
       <c r="G154">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I154">
         <v>10</v>
@@ -10382,7 +10381,7 @@
         <v>291</v>
       </c>
       <c r="G157">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="I157">
         <v>10</v>
@@ -10458,7 +10457,7 @@
         <v>215</v>
       </c>
       <c r="G159">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="I159">
         <v>10</v>
@@ -10496,7 +10495,7 @@
         <v>271</v>
       </c>
       <c r="G160">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="I160">
         <v>10</v>
